--- a/server/seeders/data.xlsx
+++ b/server/seeders/data.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="908">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="942">
   <si>
     <t>fullName</t>
   </si>
@@ -2588,9 +2588,6 @@
 1kg Pork
 1kg Frog
 1 bag of Rice (5kg)</t>
-  </si>
-  <si>
-    <t>300.000 Đ</t>
   </si>
   <si>
     <t>2 dozens of eggs
@@ -2599,9 +2596,6 @@
 1kg Crab
 1kg Clams
 1 bag of Rice (5kg)</t>
-  </si>
-  <si>
-    <t>500.000 Đ</t>
   </si>
   <si>
     <t>1kg Chicken wing
@@ -2628,12 +2622,6 @@
 1 carton of Instant noodles</t>
   </si>
   <si>
-    <t>190.000 Đ</t>
-  </si>
-  <si>
-    <t>250.000 Đ</t>
-  </si>
-  <si>
     <t>1 bag of Cereal (1kg)
 1 bottle of Fresh milk
 1 bag of Granola
@@ -2641,21 +2629,6 @@
 1 bag of Energy bar</t>
   </si>
   <si>
-    <t>280.000 Đ</t>
-  </si>
-  <si>
-    <t>2 bottles of Olive oil
-1 bottle of Mayonnaise
-1 bottle of Ketchup
-1 bottle of Maple Syrup
-2 cans of Canned Salmon
-2 cans of 2 sliced Canned Pork
-2 cans of Canned Spam</t>
-  </si>
-  <si>
-    <t>330.000 Đ</t>
-  </si>
-  <si>
     <t>1kg of Chicken Wing
 1kg of Chicken Drumsticks
 1kg of Ground Beef
@@ -2663,23 +2636,6 @@
 1kg of Bonless Cut Pork Chop</t>
   </si>
   <si>
-    <t>360.000 Đ</t>
-  </si>
-  <si>
-    <t>3 boxes of frozen Pizza (Cheese/Garlic/Sea food)
-1 bag of Frozen Chicken Wing
-1 bag of Frozen Scallops
-1 bag of Frozen Medium Cooked Shrimp
-1 bag of Mini Corndogs
-1 bag of Stuffed Sandwiches</t>
-  </si>
-  <si>
-    <t>310.000 Đ</t>
-  </si>
-  <si>
-    <t>110.000 Đ</t>
-  </si>
-  <si>
     <t>1 bag of Hamburger base
 1 bag of Smoked Ham
 1 bag of Cheese</t>
@@ -2692,17 +2648,11 @@
 3 bag of Fruit Flavored Snacks</t>
   </si>
   <si>
-    <t>170.000 Đ</t>
-  </si>
-  <si>
     <t>1kg Broccoli
 1kg Bell Peper
 1kg Potato
 1kg Tomato
 1kg Pumpkin</t>
-  </si>
-  <si>
-    <t>120.000 Đ</t>
   </si>
   <si>
     <t>1kg Cabbage
@@ -2738,33 +2688,12 @@
 0.5kg Mango</t>
   </si>
   <si>
-    <t>0.5kg Dragon fruit
-0.5kg Plum
-0.5kg Pneapple
-0.5kg Rasberry</t>
-  </si>
-  <si>
     <t>1kg Spinach
 1kg Salad
 1kg Baby Carrot
 1kg Ginger</t>
   </si>
   <si>
-    <t>210.000 Đ</t>
-  </si>
-  <si>
-    <t>215.000 Đ</t>
-  </si>
-  <si>
-    <t>150.000 Đ</t>
-  </si>
-  <si>
-    <t>160.000 Đ</t>
-  </si>
-  <si>
-    <t>235.000 Đ</t>
-  </si>
-  <si>
     <t>Combo 31</t>
   </si>
   <si>
@@ -2790,9 +2719,6 @@
     <t>3 bottle of coffee powder</t>
   </si>
   <si>
-    <t>3 carton of tea packet</t>
-  </si>
-  <si>
     <t>2 pairs of toothbrushes
 2 tubes of toothpase</t>
   </si>
@@ -2819,31 +2745,205 @@
 1 bottle of Fabric Softener</t>
   </si>
   <si>
-    <t>100.000 Đ</t>
-  </si>
-  <si>
-    <t>135.000 Đ</t>
-  </si>
-  <si>
-    <t>180.000 Đ</t>
-  </si>
-  <si>
-    <t>70.000 Đ</t>
-  </si>
-  <si>
-    <t>125.000 Đ</t>
-  </si>
-  <si>
-    <t>140.000 Đ</t>
-  </si>
-  <si>
-    <t>50.000 Đ</t>
-  </si>
-  <si>
-    <t>65.000 Đ</t>
-  </si>
-  <si>
-    <t>35.000 Đ</t>
+    <t>https://www.supermarketperimeter.com/ext/resources/2019/3/PorkBeef_Lead.jpg?t=1552086372&amp;width=1080</t>
+  </si>
+  <si>
+    <t>https://images.foody.vn/res/g105/1045163/prof/s576x330/foody-upload-api-foody-mobile-haisanhghjhkh-200903110646.jpg</t>
+  </si>
+  <si>
+    <t>https://dzm1od92zrjbp.cloudfront.net/wp-content/uploads/2020/11/Selection_999901.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ofi.com/content/dam/olamofi/homepage/homepage-ofi-images/dairy-main.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.trendhunterstatic.com/thumbs/breakfast-to-go-cereals.jpeg</t>
+  </si>
+  <si>
+    <t>https://cdn.shopify.com/s/files/1/0540/3813/4957/articles/Granola_with_Prana_s_Machu_Pichu_Fruit_Nut_Mix_600x.jpg?v=1630673651</t>
+  </si>
+  <si>
+    <t>https://i0.wp.com/www.globaltrademag.com/wp-content/uploads/2020/06/shutterstock_image-24.jpg?fit=757%2C393&amp;ssl=1</t>
+  </si>
+  <si>
+    <t>https://5mpublishing.sirv.com/pig%2Farticles%2Fslaughter-processing%2Fmarbled-pig-meat-pork-loin-slices.jpeg?scale.option=fill&amp;scale.width=1200&amp;scale.height=630&amp;crop.width=1200&amp;crop.height=630&amp;crop.y=center&amp;crop.x=center</t>
+  </si>
+  <si>
+    <t>https://www.simplyrecipes.com/thmb/e6EHD3Ep-dewz6Thj-GGWPZD4Zg=/1488x992/filters:fill(auto,1)/__opt__aboutcom__coeus__resources__content_migration__simply_recipes__uploads__2019__04__Stovetop-Cheeseburgers-hero1v2-2cb2337eb6724b9ea27d849bafb137d2.jpg</t>
+  </si>
+  <si>
+    <t>https://i0.wp.com/eshop.maravelspili.gr/wp-content/uploads/2021/04/dried_fruit1.jpg?fit=1274%2C824&amp;ssl=1</t>
+  </si>
+  <si>
+    <t>https://miro.medium.com/max/1200/1*ZsB64FL_HFC5Q_CVXYsUdQ.jpeg</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/proxy/Vm6Dds0_oWWYrLG3kH5yoaDb3zGIP344yYDNHIn-WRFVzMRFL9ofADGFNT4LZAdKVmFesaQs7Smd0HNAmwORCYWMi1xoxIZtEup_B41HnfWHu5LCiMtW5HN5xRI</t>
+  </si>
+  <si>
+    <t>3 boxes of frozen Pizza
+1 bag of Frozen Chicken Wing
+1 bag of Frozen Scallops
+1 bag of Mini Corndogs
+1 bag of Stuffed Sandwiches</t>
+  </si>
+  <si>
+    <t>2 bottles of Olive oil
+1 bottle of Mayonnaise
+1 bottle of Ketchup
+2 cans of Canned Salmon
+2 cans of 2 sliced Canned Pork
+2 cans of Canned Spam</t>
+  </si>
+  <si>
+    <t>http://www.allonseat.com/wp-content/uploads/2017/03/Green-Beans-with-Mushroom-XO-Sauce-1.jpg</t>
+  </si>
+  <si>
+    <t>http://tobyamidornutrition.com/wp-content/uploads/2015/01/Lo-resWallpaper1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.thespruceeats.com/thmb/umqQiC4OUAP4Fxo1pxTa4ZjS2po=/2005x1128/smart/filters:no_upscale()/GettyImages-136866928-588e4b095f9b5874ee4280a6.jpg</t>
+  </si>
+  <si>
+    <t>http://insockmonkeyslippers.files.wordpress.com/2010/02/dsc04247.jpg</t>
+  </si>
+  <si>
+    <t>0.5kg Dragon fruit
+0.5kg Plum
+0.5kg Poneapple
+0.5kg Rasberry</t>
+  </si>
+  <si>
+    <t>https://img2.goodfon.com/wallpaper/nbig/3/63/frukty-eda-shokolad-malina.jpg</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/originals/20/fd/ae/20fdae663cb4e3557e81fc6ff9c87cee.png</t>
+  </si>
+  <si>
+    <t>https://cdn.pmnewsnigeria.com/2019/10/Natural-fruit-juices-can-cause-diabetes-like-sugar-sweetened-drinks.jpg</t>
+  </si>
+  <si>
+    <t>https://www.orissapost.com/wp-content/uploads/2021/08/Grape-Juice-For-Constipation.jpg</t>
+  </si>
+  <si>
+    <t>https://www.crushpixel.com/big-static13/preview4/brown-coffee-powder-bean-1185665.jpg</t>
+  </si>
+  <si>
+    <t>3 carton of tea package</t>
+  </si>
+  <si>
+    <t>https://boxstores.net/wp-content/uploads/2020/09/creative-tea-packaging-designs-1.jpg</t>
+  </si>
+  <si>
+    <t>https://static.turbosquid.com/Preview/2014/07/08__20_37_14/dent_01.jpg4aed0f09-dc02-4ec9-9d28-44065e841069Original.jpg</t>
+  </si>
+  <si>
+    <t>https://post.healthline.com/wp-content/uploads/2020/11/771253-The-Best-Baby-Soaps-on-the-Market-Today-According-to-Dermatologists-732x549-Feature-81b9bf-1.jpg</t>
+  </si>
+  <si>
+    <t>https://media-cdn.tripadvisor.com/media/photo-s/10/8a/2d/c2/ceramic-bottle-of-shampoo.jpg</t>
+  </si>
+  <si>
+    <t>https://healthcare-in-europe.com/media/story_section_text/8431/image-01-hand-3517277-1920_hires.jpg</t>
+  </si>
+  <si>
+    <t>https://media-cldnry.s-nbcnews.com/image/upload/newscms/2020_16/1560284/filter-face-mask-today-main2-200417.jpg</t>
+  </si>
+  <si>
+    <t>https://www.thuanphathung.com/export/sites/default/.galleries/tph/Tissue-paper.jpg_109574663.jpg</t>
+  </si>
+  <si>
+    <t>https://images.ctfassets.net/9ycpqnc6ohsr/1RS9MWiKkhDc9RgcULd4Zf/6d4859b1c85e545e4143f1826fbb267e/Liquid_Conditioners_2x.jpg</t>
+  </si>
+  <si>
+    <t>http://www.perfectitaliano.com.au/content/dam/perfectitaliano-aus/recipe/0_desktop/Desktop-Basic-Pizza-Dough.jpg</t>
+  </si>
+  <si>
+    <t>http://ocdn.eu/images/pulscms/NjU7MDA_/37b9c09efc66e3ef87a592c0b58576d3.jpg</t>
+  </si>
+  <si>
+    <t>https://media.istockphoto.com/photos/baby-bottle-and-milk-powder-picture-id637554988?k=20&amp;m=637554988&amp;s=612x612&amp;w=0&amp;h=_VqcBYPo3UIm3gm_zGlIwyMqhguQ9cjHBkmCE5Qymh4=</t>
+  </si>
+  <si>
+    <t>300000</t>
+  </si>
+  <si>
+    <t>500000</t>
+  </si>
+  <si>
+    <t>250000</t>
+  </si>
+  <si>
+    <t>190000</t>
+  </si>
+  <si>
+    <t>180000</t>
+  </si>
+  <si>
+    <t>256000</t>
+  </si>
+  <si>
+    <t>280000</t>
+  </si>
+  <si>
+    <t>365000</t>
+  </si>
+  <si>
+    <t>312000</t>
+  </si>
+  <si>
+    <t>140000</t>
+  </si>
+  <si>
+    <t>175000</t>
+  </si>
+  <si>
+    <t>122000</t>
+  </si>
+  <si>
+    <t>210000</t>
+  </si>
+  <si>
+    <t>215000</t>
+  </si>
+  <si>
+    <t>150000</t>
+  </si>
+  <si>
+    <t>160000</t>
+  </si>
+  <si>
+    <t>235000</t>
+  </si>
+  <si>
+    <t>120000</t>
+  </si>
+  <si>
+    <t>100000</t>
+  </si>
+  <si>
+    <t>110000</t>
+  </si>
+  <si>
+    <t>121000</t>
+  </si>
+  <si>
+    <t>135000</t>
+  </si>
+  <si>
+    <t>70000</t>
+  </si>
+  <si>
+    <t>125000</t>
+  </si>
+  <si>
+    <t>50000</t>
+  </si>
+  <si>
+    <t>65000</t>
+  </si>
+  <si>
+    <t>35000</t>
   </si>
 </sst>
 </file>
@@ -2902,7 +3002,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
@@ -2932,6 +3032,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3335,7 +3438,7 @@
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <f ca="1">RANDBETWEEN(100000000,999999999)</f>
-        <v>254660828</v>
+        <v>986522884</v>
       </c>
       <c r="B4" t="s">
         <v>655</v>
@@ -3368,7 +3471,7 @@
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" ref="A5:A53" ca="1" si="0">RANDBETWEEN(100000000,999999999)</f>
-        <v>405043215</v>
+        <v>472133923</v>
       </c>
       <c r="B5" t="s">
         <v>656</v>
@@ -3401,7 +3504,7 @@
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" ca="1" si="0"/>
-        <v>551077457</v>
+        <v>274374394</v>
       </c>
       <c r="B6" t="s">
         <v>657</v>
@@ -3434,7 +3537,7 @@
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" ca="1" si="0"/>
-        <v>526329991</v>
+        <v>377531733</v>
       </c>
       <c r="B7" t="s">
         <v>658</v>
@@ -3467,7 +3570,7 @@
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" ca="1" si="0"/>
-        <v>212423811</v>
+        <v>853853638</v>
       </c>
       <c r="B8" t="s">
         <v>659</v>
@@ -3500,7 +3603,7 @@
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" ca="1" si="0"/>
-        <v>666974084</v>
+        <v>794971070</v>
       </c>
       <c r="B9" t="s">
         <v>660</v>
@@ -3533,7 +3636,7 @@
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" ca="1" si="0"/>
-        <v>866135442</v>
+        <v>342846191</v>
       </c>
       <c r="B10" t="s">
         <v>661</v>
@@ -3566,7 +3669,7 @@
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" ca="1" si="0"/>
-        <v>964377002</v>
+        <v>502641996</v>
       </c>
       <c r="B11" t="s">
         <v>662</v>
@@ -3599,7 +3702,7 @@
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" ca="1" si="0"/>
-        <v>889060102</v>
+        <v>825530011</v>
       </c>
       <c r="B12" t="s">
         <v>663</v>
@@ -3632,7 +3735,7 @@
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" ca="1" si="0"/>
-        <v>428678830</v>
+        <v>756160489</v>
       </c>
       <c r="B13" t="s">
         <v>664</v>
@@ -3665,7 +3768,7 @@
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" ca="1" si="0"/>
-        <v>671642774</v>
+        <v>281821353</v>
       </c>
       <c r="B14" t="s">
         <v>665</v>
@@ -3698,7 +3801,7 @@
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" ca="1" si="0"/>
-        <v>404590059</v>
+        <v>484871159</v>
       </c>
       <c r="B15" t="s">
         <v>666</v>
@@ -3731,7 +3834,7 @@
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" ca="1" si="0"/>
-        <v>317131706</v>
+        <v>385473120</v>
       </c>
       <c r="B16" t="s">
         <v>667</v>
@@ -3764,7 +3867,7 @@
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" ca="1" si="0"/>
-        <v>150723103</v>
+        <v>903594027</v>
       </c>
       <c r="B17" t="s">
         <v>668</v>
@@ -3797,7 +3900,7 @@
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" ca="1" si="0"/>
-        <v>676619860</v>
+        <v>996319695</v>
       </c>
       <c r="B18" t="s">
         <v>669</v>
@@ -3830,7 +3933,7 @@
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" ca="1" si="0"/>
-        <v>279462999</v>
+        <v>163957940</v>
       </c>
       <c r="B19" t="s">
         <v>670</v>
@@ -3863,7 +3966,7 @@
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" ca="1" si="0"/>
-        <v>375894680</v>
+        <v>876500619</v>
       </c>
       <c r="B20" t="s">
         <v>671</v>
@@ -3896,7 +3999,7 @@
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" ca="1" si="0"/>
-        <v>452357785</v>
+        <v>897953444</v>
       </c>
       <c r="B21" t="s">
         <v>672</v>
@@ -3929,7 +4032,7 @@
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" ca="1" si="0"/>
-        <v>412999969</v>
+        <v>507642258</v>
       </c>
       <c r="B22" t="s">
         <v>673</v>
@@ -3962,7 +4065,7 @@
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" ca="1" si="0"/>
-        <v>861485530</v>
+        <v>288027334</v>
       </c>
       <c r="B23" t="s">
         <v>674</v>
@@ -3995,7 +4098,7 @@
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" ca="1" si="0"/>
-        <v>701596858</v>
+        <v>199173338</v>
       </c>
       <c r="B24" t="s">
         <v>675</v>
@@ -4028,7 +4131,7 @@
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" ca="1" si="0"/>
-        <v>619459700</v>
+        <v>169625300</v>
       </c>
       <c r="B25" t="s">
         <v>676</v>
@@ -4057,7 +4160,7 @@
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" ca="1" si="0"/>
-        <v>289519226</v>
+        <v>710957293</v>
       </c>
       <c r="B26" t="s">
         <v>677</v>
@@ -4087,7 +4190,7 @@
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" ca="1" si="0"/>
-        <v>444923013</v>
+        <v>637241251</v>
       </c>
       <c r="B27" t="s">
         <v>678</v>
@@ -4117,7 +4220,7 @@
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" ca="1" si="0"/>
-        <v>858086694</v>
+        <v>691652214</v>
       </c>
       <c r="B28" t="s">
         <v>679</v>
@@ -4147,7 +4250,7 @@
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" ca="1" si="0"/>
-        <v>497570885</v>
+        <v>425174894</v>
       </c>
       <c r="B29" t="s">
         <v>680</v>
@@ -4177,7 +4280,7 @@
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" ca="1" si="0"/>
-        <v>522181074</v>
+        <v>809689581</v>
       </c>
       <c r="B30" t="s">
         <v>681</v>
@@ -4207,7 +4310,7 @@
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" ca="1" si="0"/>
-        <v>372737063</v>
+        <v>343256444</v>
       </c>
       <c r="B31" t="s">
         <v>682</v>
@@ -4236,7 +4339,7 @@
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" ca="1" si="0"/>
-        <v>689206799</v>
+        <v>980999944</v>
       </c>
       <c r="B32" t="s">
         <v>683</v>
@@ -4266,7 +4369,7 @@
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" ca="1" si="0"/>
-        <v>499805218</v>
+        <v>957540818</v>
       </c>
       <c r="B33" t="s">
         <v>684</v>
@@ -4296,7 +4399,7 @@
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" ca="1" si="0"/>
-        <v>358876620</v>
+        <v>762497384</v>
       </c>
       <c r="B34" t="s">
         <v>685</v>
@@ -4326,7 +4429,7 @@
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" ca="1" si="0"/>
-        <v>644999568</v>
+        <v>145178284</v>
       </c>
       <c r="B35" t="s">
         <v>686</v>
@@ -4356,7 +4459,7 @@
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" ca="1" si="0"/>
-        <v>289962685</v>
+        <v>407008289</v>
       </c>
       <c r="B36" t="s">
         <v>687</v>
@@ -4385,7 +4488,7 @@
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37">
         <f t="shared" ca="1" si="0"/>
-        <v>308343175</v>
+        <v>206104385</v>
       </c>
       <c r="B37" t="s">
         <v>688</v>
@@ -4415,7 +4518,7 @@
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" ca="1" si="0"/>
-        <v>827589944</v>
+        <v>562534246</v>
       </c>
       <c r="B38" t="s">
         <v>689</v>
@@ -4445,7 +4548,7 @@
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="shared" ca="1" si="0"/>
-        <v>354836468</v>
+        <v>377842593</v>
       </c>
       <c r="B39" t="s">
         <v>690</v>
@@ -4474,7 +4577,7 @@
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40">
         <f t="shared" ca="1" si="0"/>
-        <v>340838470</v>
+        <v>241189608</v>
       </c>
       <c r="B40" t="s">
         <v>691</v>
@@ -4504,7 +4607,7 @@
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41">
         <f t="shared" ca="1" si="0"/>
-        <v>918808818</v>
+        <v>528018595</v>
       </c>
       <c r="B41" t="s">
         <v>692</v>
@@ -4534,7 +4637,7 @@
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42">
         <f t="shared" ca="1" si="0"/>
-        <v>249486067</v>
+        <v>558885338</v>
       </c>
       <c r="B42" t="s">
         <v>693</v>
@@ -4563,7 +4666,7 @@
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43">
         <f t="shared" ca="1" si="0"/>
-        <v>264076891</v>
+        <v>928862918</v>
       </c>
       <c r="B43" t="s">
         <v>694</v>
@@ -4593,7 +4696,7 @@
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44">
         <f t="shared" ca="1" si="0"/>
-        <v>755816323</v>
+        <v>472807733</v>
       </c>
       <c r="B44" t="s">
         <v>695</v>
@@ -4623,7 +4726,7 @@
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45">
         <f t="shared" ca="1" si="0"/>
-        <v>743119570</v>
+        <v>446416182</v>
       </c>
       <c r="B45" t="s">
         <v>696</v>
@@ -4653,7 +4756,7 @@
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46">
         <f t="shared" ca="1" si="0"/>
-        <v>436529329</v>
+        <v>210826541</v>
       </c>
       <c r="B46" t="s">
         <v>697</v>
@@ -4682,7 +4785,7 @@
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47">
         <f t="shared" ca="1" si="0"/>
-        <v>120600436</v>
+        <v>459733413</v>
       </c>
       <c r="B47" t="s">
         <v>698</v>
@@ -4712,7 +4815,7 @@
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48">
         <f t="shared" ca="1" si="0"/>
-        <v>350297251</v>
+        <v>216397772</v>
       </c>
       <c r="B48" t="s">
         <v>699</v>
@@ -4741,7 +4844,7 @@
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49">
         <f t="shared" ca="1" si="0"/>
-        <v>879322879</v>
+        <v>100656384</v>
       </c>
       <c r="B49" t="s">
         <v>700</v>
@@ -4771,7 +4874,7 @@
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50">
         <f t="shared" ca="1" si="0"/>
-        <v>691832285</v>
+        <v>263073699</v>
       </c>
       <c r="B50" t="s">
         <v>701</v>
@@ -4801,7 +4904,7 @@
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51">
         <f t="shared" ca="1" si="0"/>
-        <v>464953600</v>
+        <v>524175749</v>
       </c>
       <c r="B51" t="s">
         <v>702</v>
@@ -4829,7 +4932,7 @@
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52">
         <f t="shared" ca="1" si="0"/>
-        <v>659287462</v>
+        <v>461028048</v>
       </c>
       <c r="B52" t="s">
         <v>703</v>
@@ -4857,7 +4960,7 @@
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53">
         <f t="shared" ca="1" si="0"/>
-        <v>301515333</v>
+        <v>487523049</v>
       </c>
       <c r="B53" t="s">
         <v>704</v>
@@ -7713,8 +7816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P400"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7756,19 +7859,20 @@
         <v>819</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>459</v>
+        <v>879</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>849</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>850</v>
+        <v>915</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>246</v>
       </c>
       <c r="F2" s="12">
-        <v>100</v>
+        <f ca="1">RANDBETWEEN(0,2000)</f>
+        <v>1243</v>
       </c>
       <c r="G2" s="10" t="s">
         <v>816</v>
@@ -7779,19 +7883,20 @@
         <v>820</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>460</v>
+        <v>880</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>852</v>
+        <v>916</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>246</v>
       </c>
       <c r="F3" s="12">
-        <v>50</v>
+        <f t="shared" ref="F3:F33" ca="1" si="0">RANDBETWEEN(0,2000)</f>
+        <v>737</v>
       </c>
       <c r="G3" s="10" t="s">
         <v>816</v>
@@ -7802,19 +7907,20 @@
         <v>821</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>461</v>
+        <v>881</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>857</v>
+        <v>917</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>246</v>
       </c>
       <c r="F4" s="12">
-        <v>200</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>707</v>
       </c>
       <c r="G4" s="10" t="s">
         <v>816</v>
@@ -7825,19 +7931,20 @@
         <v>822</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>462</v>
+        <v>882</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>856</v>
+        <v>918</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>246</v>
       </c>
       <c r="F5" s="12">
-        <v>20</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
       </c>
       <c r="G5" s="10" t="s">
         <v>816</v>
@@ -7848,19 +7955,20 @@
         <v>823</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>463</v>
+        <v>883</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>859</v>
+        <v>919</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>246</v>
       </c>
       <c r="F6" s="12">
-        <v>60</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>253</v>
       </c>
       <c r="G6" s="10" t="s">
         <v>816</v>
@@ -7871,111 +7979,116 @@
         <v>824</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>464</v>
+        <v>884</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>856</v>
+        <v>920</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>246</v>
       </c>
       <c r="F7" s="12">
-        <v>10</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>989</v>
       </c>
       <c r="G7" s="10" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>825</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>465</v>
+        <v>885</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>860</v>
+        <v>892</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>861</v>
+        <v>921</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>246</v>
       </c>
       <c r="F8" s="12">
-        <v>140</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>95</v>
       </c>
       <c r="G8" s="10" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>826</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>466</v>
+        <v>886</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>862</v>
+        <v>855</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>863</v>
+        <v>922</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>246</v>
       </c>
       <c r="F9" s="12">
-        <v>110</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1271</v>
       </c>
       <c r="G9" s="10" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>827</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>467</v>
+        <v>912</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>864</v>
+        <v>891</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>865</v>
+        <v>923</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>246</v>
       </c>
       <c r="F10" s="12">
-        <v>100</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1186</v>
       </c>
       <c r="G10" s="10" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>828</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>448</v>
+        <v>887</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>867</v>
+        <v>856</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>866</v>
+        <v>924</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>246</v>
       </c>
       <c r="F11" s="12">
-        <v>5</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1343</v>
       </c>
       <c r="G11" s="10" t="s">
         <v>816</v>
@@ -7986,19 +8099,20 @@
         <v>829</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>468</v>
+        <v>888</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>868</v>
+        <v>857</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>869</v>
+        <v>925</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>246</v>
       </c>
       <c r="F12" s="12">
-        <v>15</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>178</v>
       </c>
       <c r="G12" s="10" t="s">
         <v>816</v>
@@ -8009,42 +8123,44 @@
         <v>830</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>469</v>
+        <v>889</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>870</v>
+        <v>858</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>871</v>
+        <v>926</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>246</v>
       </c>
       <c r="F13" s="12">
-        <v>22</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1893</v>
       </c>
       <c r="G13" s="10" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>831</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>445</v>
+        <v>890</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>872</v>
+        <v>859</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>879</v>
+        <v>927</v>
       </c>
       <c r="E14" s="10" t="s">
         <v>246</v>
       </c>
       <c r="F14" s="12">
-        <v>111</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1967</v>
       </c>
       <c r="G14" s="10" t="s">
         <v>227</v>
@@ -8055,19 +8171,20 @@
         <v>832</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>470</v>
+        <v>893</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>873</v>
+        <v>860</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>880</v>
+        <v>928</v>
       </c>
       <c r="E15" s="10" t="s">
         <v>246</v>
       </c>
       <c r="F15" s="12">
-        <v>10</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1838</v>
       </c>
       <c r="G15" s="10" t="s">
         <v>227</v>
@@ -8078,13 +8195,13 @@
         <v>833</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>450</v>
+        <v>894</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>874</v>
+        <v>861</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>856</v>
+        <v>918</v>
       </c>
       <c r="E16" s="10" t="s">
         <v>232</v>
@@ -8096,18 +8213,18 @@
         <v>227</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>834</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>456</v>
+        <v>895</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>875</v>
+        <v>862</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>881</v>
+        <v>929</v>
       </c>
       <c r="E17" s="10" t="s">
         <v>232</v>
@@ -8124,19 +8241,20 @@
         <v>835</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>452</v>
+        <v>896</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>876</v>
+        <v>863</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>882</v>
+        <v>930</v>
       </c>
       <c r="E18" s="10" t="s">
         <v>246</v>
       </c>
       <c r="F18" s="12">
-        <v>1</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1999</v>
       </c>
       <c r="G18" s="10" t="s">
         <v>227</v>
@@ -8147,19 +8265,20 @@
         <v>836</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>451</v>
+        <v>913</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>877</v>
+        <v>897</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>883</v>
+        <v>931</v>
       </c>
       <c r="E19" s="10" t="s">
         <v>246</v>
       </c>
       <c r="F19" s="12">
-        <v>50</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1192</v>
       </c>
       <c r="G19" s="10" t="s">
         <v>227</v>
@@ -8170,42 +8289,44 @@
         <v>837</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>447</v>
+        <v>898</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>878</v>
+        <v>864</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>871</v>
+        <v>932</v>
       </c>
       <c r="E20" s="10" t="s">
         <v>246</v>
       </c>
       <c r="F20" s="12">
-        <v>29</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>573</v>
       </c>
       <c r="G20" s="10" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>838</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>464</v>
+        <v>899</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>886</v>
+        <v>867</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>899</v>
+        <v>933</v>
       </c>
       <c r="E21" s="10" t="s">
         <v>246</v>
       </c>
       <c r="F21" s="12">
-        <v>150</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1592</v>
       </c>
       <c r="G21" s="10" t="s">
         <v>817</v>
@@ -8216,111 +8337,116 @@
         <v>839</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>453</v>
+        <v>900</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>887</v>
+        <v>868</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>866</v>
+        <v>934</v>
       </c>
       <c r="E22" s="10" t="s">
         <v>246</v>
       </c>
       <c r="F22" s="12">
-        <v>111</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1896</v>
       </c>
       <c r="G22" s="10" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>840</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>459</v>
+        <v>901</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>888</v>
+        <v>869</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>866</v>
+        <v>935</v>
       </c>
       <c r="E23" s="10" t="s">
         <v>246</v>
       </c>
       <c r="F23" s="12">
-        <v>61</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>365</v>
       </c>
       <c r="G23" s="10" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>841</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>460</v>
+        <v>914</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>889</v>
+        <v>870</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>900</v>
+        <v>936</v>
       </c>
       <c r="E24" s="10" t="s">
         <v>246</v>
       </c>
       <c r="F24" s="12">
-        <v>212</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>929</v>
       </c>
       <c r="G24" s="10" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>842</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>461</v>
+        <v>902</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>890</v>
+        <v>871</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>901</v>
+        <v>919</v>
       </c>
       <c r="E25" s="10" t="s">
         <v>246</v>
       </c>
       <c r="F25" s="12">
-        <v>37</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1858</v>
       </c>
       <c r="G25" s="10" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>843</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>462</v>
+        <v>904</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>891</v>
+        <v>903</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>899</v>
+        <v>933</v>
       </c>
       <c r="E26" s="10" t="s">
         <v>246</v>
       </c>
       <c r="F26" s="12">
-        <v>26</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>946</v>
       </c>
       <c r="G26" s="10" t="s">
         <v>817</v>
@@ -8331,42 +8457,44 @@
         <v>844</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>463</v>
+        <v>905</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>892</v>
+        <v>872</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>902</v>
+        <v>937</v>
       </c>
       <c r="E27" s="10" t="s">
         <v>246</v>
       </c>
       <c r="F27" s="12">
-        <v>350</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>706</v>
       </c>
       <c r="G27" s="10" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>845</v>
       </c>
-      <c r="B28" s="7" t="s">
-        <v>464</v>
+      <c r="B28" s="14" t="s">
+        <v>906</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>893</v>
+        <v>873</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>903</v>
+        <v>938</v>
       </c>
       <c r="E28" s="10" t="s">
         <v>246</v>
       </c>
       <c r="F28" s="12">
-        <v>147</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1539</v>
       </c>
       <c r="G28" s="10" t="s">
         <v>818</v>
@@ -8377,19 +8505,20 @@
         <v>846</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>465</v>
+        <v>907</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>894</v>
+        <v>874</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>904</v>
+        <v>924</v>
       </c>
       <c r="E29" s="10" t="s">
         <v>246</v>
       </c>
       <c r="F29" s="12">
-        <v>82</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1189</v>
       </c>
       <c r="G29" s="10" t="s">
         <v>818</v>
@@ -8400,19 +8529,20 @@
         <v>847</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>466</v>
+        <v>908</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>895</v>
+        <v>875</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>905</v>
+        <v>939</v>
       </c>
       <c r="E30" s="10" t="s">
         <v>246</v>
       </c>
       <c r="F30" s="12">
-        <v>996</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1503</v>
       </c>
       <c r="G30" s="10" t="s">
         <v>818</v>
@@ -8423,42 +8553,43 @@
         <v>848</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>467</v>
+        <v>909</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>896</v>
+        <v>876</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>906</v>
+        <v>940</v>
       </c>
       <c r="E31" s="10" t="s">
         <v>246</v>
       </c>
       <c r="F31" s="12">
-        <v>1254</v>
+        <v>2</v>
       </c>
       <c r="G31" s="10" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
-        <v>884</v>
+        <v>865</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>448</v>
+        <v>910</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>897</v>
+        <v>877</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>907</v>
+        <v>941</v>
       </c>
       <c r="E32" s="10" t="s">
         <v>246</v>
       </c>
       <c r="F32" s="12">
-        <v>123</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1162</v>
       </c>
       <c r="G32" s="10" t="s">
         <v>818</v>
@@ -8466,22 +8597,23 @@
     </row>
     <row r="33" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
-        <v>885</v>
+        <v>866</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>468</v>
+        <v>911</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>898</v>
+        <v>878</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>857</v>
+        <v>917</v>
       </c>
       <c r="E33" s="10" t="s">
         <v>246</v>
       </c>
       <c r="F33" s="12">
-        <v>64</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1521</v>
       </c>
       <c r="G33" s="10" t="s">
         <v>818</v>
@@ -9946,6 +10078,9 @@
       <c r="C400" s="10"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B28" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10075,18 +10210,18 @@
       </c>
       <c r="D2">
         <f ca="1">RANDBETWEEN(250,5000)</f>
-        <v>1117</v>
+        <v>1582</v>
       </c>
       <c r="E2">
         <f ca="1">RANDBETWEEN(0,50)</f>
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
         <v>246</v>
       </c>
       <c r="G2">
         <f ca="1">RANDBETWEEN(0,10000)</f>
-        <v>3264</v>
+        <v>9831</v>
       </c>
       <c r="H2" t="s">
         <v>251</v>
@@ -10104,18 +10239,18 @@
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D66" ca="1" si="0">RANDBETWEEN(250,5000)</f>
-        <v>4965</v>
+        <v>4769</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E66" ca="1" si="1">RANDBETWEEN(0,50)</f>
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F3" t="s">
         <v>246</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G66" ca="1" si="2">RANDBETWEEN(0,10000)</f>
-        <v>542</v>
+        <v>9506</v>
       </c>
       <c r="H3" t="s">
         <v>251</v>
@@ -10133,18 +10268,18 @@
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>4938</v>
+        <v>3161</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="1"/>
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="F4" t="s">
         <v>246</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="2"/>
-        <v>4196</v>
+        <v>4109</v>
       </c>
       <c r="H4" t="s">
         <v>251</v>
@@ -10162,18 +10297,18 @@
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>3992</v>
+        <v>4558</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="1"/>
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F5" t="s">
         <v>246</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="2"/>
-        <v>7400</v>
+        <v>1857</v>
       </c>
       <c r="H5" t="s">
         <v>251</v>
@@ -10191,18 +10326,18 @@
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>4641</v>
+        <v>1811</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="1"/>
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
         <v>246</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="2"/>
-        <v>8980</v>
+        <v>6326</v>
       </c>
       <c r="H6" t="s">
         <v>251</v>
@@ -10220,18 +10355,18 @@
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>1568</v>
+        <v>2116</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="1"/>
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F7" t="s">
         <v>246</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="2"/>
-        <v>9482</v>
+        <v>918</v>
       </c>
       <c r="H7" t="s">
         <v>251</v>
@@ -10249,18 +10384,18 @@
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>3799</v>
+        <v>796</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="1"/>
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F8" t="s">
         <v>246</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="2"/>
-        <v>6696</v>
+        <v>2997</v>
       </c>
       <c r="H8" t="s">
         <v>251</v>
@@ -10278,18 +10413,18 @@
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>3396</v>
+        <v>2780</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="F9" t="s">
         <v>246</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="2"/>
-        <v>5805</v>
+        <v>842</v>
       </c>
       <c r="H9" t="s">
         <v>251</v>
@@ -10307,18 +10442,18 @@
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>321</v>
+        <v>822</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="1"/>
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F10" t="s">
         <v>246</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="2"/>
-        <v>3004</v>
+        <v>8644</v>
       </c>
       <c r="H10" t="s">
         <v>251</v>
@@ -10336,18 +10471,18 @@
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>948</v>
+        <v>332</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F11" t="s">
         <v>246</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="2"/>
-        <v>2855</v>
+        <v>5145</v>
       </c>
       <c r="H11" t="s">
         <v>251</v>
@@ -10365,18 +10500,18 @@
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>2872</v>
+        <v>4062</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="F12" t="s">
         <v>246</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="2"/>
-        <v>3124</v>
+        <v>9439</v>
       </c>
       <c r="H12" t="s">
         <v>251</v>
@@ -10394,18 +10529,18 @@
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>4426</v>
+        <v>433</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F13" t="s">
         <v>246</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="2"/>
-        <v>806</v>
+        <v>5070</v>
       </c>
       <c r="H13" t="s">
         <v>251</v>
@@ -10423,18 +10558,18 @@
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>1118</v>
+        <v>1499</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="1"/>
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="F14" t="s">
         <v>246</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="2"/>
-        <v>3691</v>
+        <v>7077</v>
       </c>
       <c r="H14" t="s">
         <v>251</v>
@@ -10452,18 +10587,18 @@
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>426</v>
+        <v>4190</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="1"/>
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="F15" t="s">
         <v>246</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="2"/>
-        <v>6195</v>
+        <v>9760</v>
       </c>
       <c r="H15" t="s">
         <v>251</v>
@@ -10481,18 +10616,18 @@
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>524</v>
+        <v>4287</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="1"/>
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="F16" t="s">
         <v>246</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="2"/>
-        <v>839</v>
+        <v>9198</v>
       </c>
       <c r="H16" t="s">
         <v>251</v>
@@ -10510,18 +10645,18 @@
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="0"/>
-        <v>2684</v>
+        <v>696</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="F17" t="s">
         <v>246</v>
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="2"/>
-        <v>7200</v>
+        <v>5899</v>
       </c>
       <c r="H17" t="s">
         <v>251</v>
@@ -10539,18 +10674,18 @@
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="0"/>
-        <v>1126</v>
+        <v>2868</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="1"/>
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F18" t="s">
         <v>246</v>
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="2"/>
-        <v>680</v>
+        <v>8940</v>
       </c>
       <c r="H18" t="s">
         <v>251</v>
@@ -10568,18 +10703,18 @@
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="0"/>
-        <v>4567</v>
+        <v>1644</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="1"/>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F19" t="s">
         <v>246</v>
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="2"/>
-        <v>9515</v>
+        <v>6260</v>
       </c>
       <c r="H19" t="s">
         <v>251</v>
@@ -10597,18 +10732,18 @@
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="0"/>
-        <v>3940</v>
+        <v>3590</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="F20" t="s">
         <v>246</v>
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="2"/>
-        <v>182</v>
+        <v>9376</v>
       </c>
       <c r="H20" t="s">
         <v>251</v>
@@ -10626,18 +10761,18 @@
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="0"/>
-        <v>2437</v>
+        <v>1739</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F21" t="s">
         <v>246</v>
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="2"/>
-        <v>4151</v>
+        <v>5683</v>
       </c>
       <c r="H21" t="s">
         <v>251</v>
@@ -10655,18 +10790,18 @@
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="0"/>
-        <v>4593</v>
+        <v>1205</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="F22" t="s">
         <v>246</v>
       </c>
       <c r="G22">
         <f t="shared" ca="1" si="2"/>
-        <v>8884</v>
+        <v>6746</v>
       </c>
       <c r="H22" t="s">
         <v>251</v>
@@ -10684,18 +10819,18 @@
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="0"/>
-        <v>4772</v>
+        <v>4869</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="F23" t="s">
         <v>246</v>
       </c>
       <c r="G23">
         <f t="shared" ca="1" si="2"/>
-        <v>1910</v>
+        <v>1743</v>
       </c>
       <c r="H23" t="s">
         <v>251</v>
@@ -10713,18 +10848,18 @@
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="0"/>
-        <v>1417</v>
+        <v>4461</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="F24" t="s">
         <v>246</v>
       </c>
       <c r="G24">
         <f t="shared" ca="1" si="2"/>
-        <v>5732</v>
+        <v>5514</v>
       </c>
       <c r="H24" t="s">
         <v>251</v>
@@ -10742,18 +10877,18 @@
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="0"/>
-        <v>1146</v>
+        <v>3893</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="F25" t="s">
         <v>246</v>
       </c>
       <c r="G25">
         <f t="shared" ca="1" si="2"/>
-        <v>7298</v>
+        <v>1465</v>
       </c>
       <c r="H25" t="s">
         <v>251</v>
@@ -10771,18 +10906,18 @@
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="0"/>
-        <v>3412</v>
+        <v>1533</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="1"/>
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="F26" t="s">
         <v>246</v>
       </c>
       <c r="G26">
         <f t="shared" ca="1" si="2"/>
-        <v>7505</v>
+        <v>4921</v>
       </c>
       <c r="H26" t="s">
         <v>251</v>
@@ -10800,18 +10935,18 @@
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="0"/>
-        <v>3115</v>
+        <v>1642</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="1"/>
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="F27" t="s">
         <v>246</v>
       </c>
       <c r="G27">
         <f t="shared" ca="1" si="2"/>
-        <v>6396</v>
+        <v>4231</v>
       </c>
       <c r="H27" t="s">
         <v>251</v>
@@ -10829,18 +10964,18 @@
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="0"/>
-        <v>2620</v>
+        <v>4133</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="1"/>
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
         <v>246</v>
       </c>
       <c r="G28">
         <f t="shared" ca="1" si="2"/>
-        <v>7237</v>
+        <v>8160</v>
       </c>
       <c r="H28" t="s">
         <v>251</v>
@@ -10858,18 +10993,18 @@
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="0"/>
-        <v>650</v>
+        <v>623</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="F29" t="s">
         <v>246</v>
       </c>
       <c r="G29">
         <f t="shared" ca="1" si="2"/>
-        <v>5332</v>
+        <v>6391</v>
       </c>
       <c r="H29" t="s">
         <v>251</v>
@@ -10887,18 +11022,18 @@
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="0"/>
-        <v>1258</v>
+        <v>626</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="1"/>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F30" t="s">
         <v>246</v>
       </c>
       <c r="G30">
         <f t="shared" ca="1" si="2"/>
-        <v>5186</v>
+        <v>9100</v>
       </c>
       <c r="H30" t="s">
         <v>251</v>
@@ -10916,18 +11051,18 @@
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="0"/>
-        <v>2652</v>
+        <v>826</v>
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="F31" t="s">
         <v>246</v>
       </c>
       <c r="G31">
         <f t="shared" ca="1" si="2"/>
-        <v>9367</v>
+        <v>8875</v>
       </c>
       <c r="H31" t="s">
         <v>251</v>
@@ -10945,18 +11080,18 @@
       </c>
       <c r="D32">
         <f t="shared" ca="1" si="0"/>
-        <v>3999</v>
+        <v>3330</v>
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="1"/>
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="F32" t="s">
         <v>246</v>
       </c>
       <c r="G32">
         <f t="shared" ca="1" si="2"/>
-        <v>4335</v>
+        <v>9034</v>
       </c>
       <c r="H32" t="s">
         <v>251</v>
@@ -10974,18 +11109,18 @@
       </c>
       <c r="D33">
         <f t="shared" ca="1" si="0"/>
-        <v>1332</v>
+        <v>2119</v>
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="F33" t="s">
         <v>246</v>
       </c>
       <c r="G33">
         <f t="shared" ca="1" si="2"/>
-        <v>214</v>
+        <v>4425</v>
       </c>
       <c r="H33" t="s">
         <v>251</v>
@@ -11003,18 +11138,18 @@
       </c>
       <c r="D34">
         <f t="shared" ca="1" si="0"/>
-        <v>3584</v>
+        <v>3153</v>
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="1"/>
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F34" t="s">
         <v>246</v>
       </c>
       <c r="G34">
         <f t="shared" ca="1" si="2"/>
-        <v>1519</v>
+        <v>7393</v>
       </c>
       <c r="H34" t="s">
         <v>251</v>
@@ -11032,18 +11167,18 @@
       </c>
       <c r="D35">
         <f t="shared" ca="1" si="0"/>
-        <v>3535</v>
+        <v>4953</v>
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="1"/>
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="F35" t="s">
         <v>246</v>
       </c>
       <c r="G35">
         <f t="shared" ca="1" si="2"/>
-        <v>5669</v>
+        <v>1893</v>
       </c>
       <c r="H35" t="s">
         <v>251</v>
@@ -11061,18 +11196,18 @@
       </c>
       <c r="D36">
         <f t="shared" ca="1" si="0"/>
-        <v>1717</v>
+        <v>4949</v>
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="1"/>
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="F36" t="s">
         <v>246</v>
       </c>
       <c r="G36">
         <f t="shared" ca="1" si="2"/>
-        <v>9323</v>
+        <v>6227</v>
       </c>
       <c r="H36" t="s">
         <v>251</v>
@@ -11090,18 +11225,18 @@
       </c>
       <c r="D37">
         <f t="shared" ca="1" si="0"/>
-        <v>3695</v>
+        <v>564</v>
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="1"/>
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="F37" t="s">
         <v>246</v>
       </c>
       <c r="G37">
         <f t="shared" ca="1" si="2"/>
-        <v>4044</v>
+        <v>4500</v>
       </c>
       <c r="H37" t="s">
         <v>251</v>
@@ -11119,18 +11254,18 @@
       </c>
       <c r="D38">
         <f t="shared" ca="1" si="0"/>
-        <v>1018</v>
+        <v>2922</v>
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="1"/>
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F38" t="s">
         <v>246</v>
       </c>
       <c r="G38">
         <f t="shared" ca="1" si="2"/>
-        <v>9828</v>
+        <v>8467</v>
       </c>
       <c r="H38" t="s">
         <v>251</v>
@@ -11148,18 +11283,18 @@
       </c>
       <c r="D39">
         <f t="shared" ca="1" si="0"/>
-        <v>4804</v>
+        <v>3886</v>
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="1"/>
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="F39" t="s">
         <v>246</v>
       </c>
       <c r="G39">
         <f t="shared" ca="1" si="2"/>
-        <v>5688</v>
+        <v>313</v>
       </c>
       <c r="H39" t="s">
         <v>251</v>
@@ -11177,18 +11312,18 @@
       </c>
       <c r="D40">
         <f t="shared" ca="1" si="0"/>
-        <v>4866</v>
+        <v>4935</v>
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="F40" t="s">
         <v>246</v>
       </c>
       <c r="G40">
         <f t="shared" ca="1" si="2"/>
-        <v>4402</v>
+        <v>4115</v>
       </c>
       <c r="H40" t="s">
         <v>251</v>
@@ -11206,18 +11341,18 @@
       </c>
       <c r="D41">
         <f t="shared" ca="1" si="0"/>
-        <v>4377</v>
+        <v>759</v>
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="1"/>
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F41" t="s">
         <v>246</v>
       </c>
       <c r="G41">
         <f t="shared" ca="1" si="2"/>
-        <v>1999</v>
+        <v>2767</v>
       </c>
       <c r="H41" t="s">
         <v>251</v>
@@ -11235,18 +11370,18 @@
       </c>
       <c r="D42">
         <f t="shared" ca="1" si="0"/>
-        <v>1714</v>
+        <v>2456</v>
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="1"/>
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="F42" t="s">
         <v>246</v>
       </c>
       <c r="G42">
         <f t="shared" ca="1" si="2"/>
-        <v>505</v>
+        <v>1596</v>
       </c>
       <c r="H42" t="s">
         <v>251</v>
@@ -11264,18 +11399,18 @@
       </c>
       <c r="D43">
         <f t="shared" ca="1" si="0"/>
-        <v>444</v>
+        <v>873</v>
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="1"/>
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="F43" t="s">
         <v>246</v>
       </c>
       <c r="G43">
         <f t="shared" ca="1" si="2"/>
-        <v>2990</v>
+        <v>1031</v>
       </c>
       <c r="H43" t="s">
         <v>251</v>
@@ -11293,18 +11428,18 @@
       </c>
       <c r="D44">
         <f t="shared" ca="1" si="0"/>
-        <v>3244</v>
+        <v>2500</v>
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="1"/>
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="F44" t="s">
         <v>246</v>
       </c>
       <c r="G44">
         <f t="shared" ca="1" si="2"/>
-        <v>463</v>
+        <v>4180</v>
       </c>
       <c r="H44" t="s">
         <v>251</v>
@@ -11322,18 +11457,18 @@
       </c>
       <c r="D45">
         <f t="shared" ca="1" si="0"/>
-        <v>3133</v>
+        <v>3182</v>
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="1"/>
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F45" t="s">
         <v>246</v>
       </c>
       <c r="G45">
         <f t="shared" ca="1" si="2"/>
-        <v>2091</v>
+        <v>7673</v>
       </c>
       <c r="H45" t="s">
         <v>251</v>
@@ -11351,18 +11486,18 @@
       </c>
       <c r="D46">
         <f t="shared" ca="1" si="0"/>
-        <v>1283</v>
+        <v>4118</v>
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="F46" t="s">
         <v>246</v>
       </c>
       <c r="G46">
         <f t="shared" ca="1" si="2"/>
-        <v>926</v>
+        <v>7228</v>
       </c>
       <c r="H46" t="s">
         <v>251</v>
@@ -11380,18 +11515,18 @@
       </c>
       <c r="D47">
         <f t="shared" ca="1" si="0"/>
-        <v>4677</v>
+        <v>591</v>
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="1"/>
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F47" t="s">
         <v>246</v>
       </c>
       <c r="G47">
         <f t="shared" ca="1" si="2"/>
-        <v>9731</v>
+        <v>2706</v>
       </c>
       <c r="H47" t="s">
         <v>251</v>
@@ -11409,18 +11544,18 @@
       </c>
       <c r="D48">
         <f t="shared" ca="1" si="0"/>
-        <v>3967</v>
+        <v>3663</v>
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="F48" t="s">
         <v>246</v>
       </c>
       <c r="G48">
         <f t="shared" ca="1" si="2"/>
-        <v>3109</v>
+        <v>5740</v>
       </c>
       <c r="H48" t="s">
         <v>251</v>
@@ -11438,18 +11573,18 @@
       </c>
       <c r="D49">
         <f t="shared" ca="1" si="0"/>
-        <v>2374</v>
+        <v>4646</v>
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="1"/>
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F49" t="s">
         <v>246</v>
       </c>
       <c r="G49">
         <f t="shared" ca="1" si="2"/>
-        <v>2796</v>
+        <v>3969</v>
       </c>
       <c r="H49" t="s">
         <v>251</v>
@@ -11467,18 +11602,18 @@
       </c>
       <c r="D50">
         <f t="shared" ca="1" si="0"/>
-        <v>1640</v>
+        <v>1415</v>
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="1"/>
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="F50" t="s">
         <v>246</v>
       </c>
       <c r="G50">
         <f t="shared" ca="1" si="2"/>
-        <v>102</v>
+        <v>5989</v>
       </c>
       <c r="H50" t="s">
         <v>251</v>
@@ -11496,18 +11631,18 @@
       </c>
       <c r="D51">
         <f t="shared" ca="1" si="0"/>
-        <v>1071</v>
+        <v>4395</v>
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="F51" t="s">
         <v>246</v>
       </c>
       <c r="G51">
         <f t="shared" ca="1" si="2"/>
-        <v>6227</v>
+        <v>1074</v>
       </c>
       <c r="H51" t="s">
         <v>251</v>
@@ -11525,18 +11660,18 @@
       </c>
       <c r="D52">
         <f t="shared" ca="1" si="0"/>
-        <v>1350</v>
+        <v>2706</v>
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="1"/>
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="F52" t="s">
         <v>246</v>
       </c>
       <c r="G52">
         <f t="shared" ca="1" si="2"/>
-        <v>6723</v>
+        <v>1331</v>
       </c>
       <c r="H52" t="s">
         <v>251</v>
@@ -11554,18 +11689,18 @@
       </c>
       <c r="D53">
         <f t="shared" ca="1" si="0"/>
-        <v>388</v>
+        <v>2157</v>
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="1"/>
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="F53" t="s">
         <v>246</v>
       </c>
       <c r="G53">
         <f t="shared" ca="1" si="2"/>
-        <v>7821</v>
+        <v>3184</v>
       </c>
       <c r="H53" t="s">
         <v>251</v>
@@ -11583,18 +11718,18 @@
       </c>
       <c r="D54">
         <f t="shared" ca="1" si="0"/>
-        <v>905</v>
+        <v>3909</v>
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="1"/>
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
         <v>246</v>
       </c>
       <c r="G54">
         <f t="shared" ca="1" si="2"/>
-        <v>8259</v>
+        <v>9215</v>
       </c>
       <c r="H54" t="s">
         <v>251</v>
@@ -11612,18 +11747,18 @@
       </c>
       <c r="D55">
         <f t="shared" ca="1" si="0"/>
-        <v>2291</v>
+        <v>1235</v>
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="1"/>
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="F55" t="s">
         <v>246</v>
       </c>
       <c r="G55">
         <f t="shared" ca="1" si="2"/>
-        <v>501</v>
+        <v>7522</v>
       </c>
       <c r="H55" t="s">
         <v>251</v>
@@ -11641,18 +11776,18 @@
       </c>
       <c r="D56">
         <f t="shared" ca="1" si="0"/>
-        <v>3601</v>
+        <v>2878</v>
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="1"/>
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="F56" t="s">
         <v>246</v>
       </c>
       <c r="G56">
         <f t="shared" ca="1" si="2"/>
-        <v>9275</v>
+        <v>2842</v>
       </c>
       <c r="H56" t="s">
         <v>251</v>
@@ -11670,18 +11805,18 @@
       </c>
       <c r="D57">
         <f t="shared" ca="1" si="0"/>
-        <v>2880</v>
+        <v>3461</v>
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="F57" t="s">
         <v>246</v>
       </c>
       <c r="G57">
         <f t="shared" ca="1" si="2"/>
-        <v>6542</v>
+        <v>2800</v>
       </c>
       <c r="H57" t="s">
         <v>251</v>
@@ -11699,18 +11834,18 @@
       </c>
       <c r="D58">
         <f t="shared" ca="1" si="0"/>
-        <v>1003</v>
+        <v>3357</v>
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="F58" t="s">
         <v>246</v>
       </c>
       <c r="G58">
         <f t="shared" ca="1" si="2"/>
-        <v>6646</v>
+        <v>6103</v>
       </c>
       <c r="H58" t="s">
         <v>251</v>
@@ -11728,18 +11863,18 @@
       </c>
       <c r="D59">
         <f t="shared" ca="1" si="0"/>
-        <v>1708</v>
+        <v>1250</v>
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="1"/>
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="F59" t="s">
         <v>246</v>
       </c>
       <c r="G59">
         <f t="shared" ca="1" si="2"/>
-        <v>7041</v>
+        <v>7698</v>
       </c>
       <c r="H59" t="s">
         <v>251</v>
@@ -11757,18 +11892,18 @@
       </c>
       <c r="D60">
         <f t="shared" ca="1" si="0"/>
-        <v>1012</v>
+        <v>3960</v>
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="1"/>
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="F60" t="s">
         <v>246</v>
       </c>
       <c r="G60">
         <f t="shared" ca="1" si="2"/>
-        <v>4047</v>
+        <v>1106</v>
       </c>
       <c r="H60" t="s">
         <v>251</v>
@@ -11786,18 +11921,18 @@
       </c>
       <c r="D61">
         <f t="shared" ca="1" si="0"/>
-        <v>903</v>
+        <v>1341</v>
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="1"/>
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="F61" t="s">
         <v>246</v>
       </c>
       <c r="G61">
         <f t="shared" ca="1" si="2"/>
-        <v>7145</v>
+        <v>934</v>
       </c>
       <c r="H61" t="s">
         <v>251</v>
@@ -11815,18 +11950,18 @@
       </c>
       <c r="D62">
         <f t="shared" ca="1" si="0"/>
-        <v>3751</v>
+        <v>1470</v>
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F62" t="s">
         <v>246</v>
       </c>
       <c r="G62">
         <f t="shared" ca="1" si="2"/>
-        <v>3422</v>
+        <v>1385</v>
       </c>
       <c r="H62" t="s">
         <v>251</v>
@@ -11844,18 +11979,18 @@
       </c>
       <c r="D63">
         <f t="shared" ca="1" si="0"/>
-        <v>4978</v>
+        <v>1282</v>
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="F63" t="s">
         <v>246</v>
       </c>
       <c r="G63">
         <f t="shared" ca="1" si="2"/>
-        <v>5292</v>
+        <v>9788</v>
       </c>
       <c r="H63" t="s">
         <v>251</v>
@@ -11873,18 +12008,18 @@
       </c>
       <c r="D64">
         <f t="shared" ca="1" si="0"/>
-        <v>1264</v>
+        <v>3060</v>
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="1"/>
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F64" t="s">
         <v>246</v>
       </c>
       <c r="G64">
         <f t="shared" ca="1" si="2"/>
-        <v>6673</v>
+        <v>6208</v>
       </c>
       <c r="H64" t="s">
         <v>251</v>
@@ -11902,18 +12037,18 @@
       </c>
       <c r="D65">
         <f t="shared" ca="1" si="0"/>
-        <v>1261</v>
+        <v>2436</v>
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F65" t="s">
         <v>246</v>
       </c>
       <c r="G65">
         <f t="shared" ca="1" si="2"/>
-        <v>5080</v>
+        <v>2878</v>
       </c>
       <c r="H65" t="s">
         <v>251</v>
@@ -11931,18 +12066,18 @@
       </c>
       <c r="D66">
         <f t="shared" ca="1" si="0"/>
-        <v>2444</v>
+        <v>1556</v>
       </c>
       <c r="E66">
         <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F66" t="s">
         <v>246</v>
       </c>
       <c r="G66">
         <f t="shared" ca="1" si="2"/>
-        <v>6524</v>
+        <v>7143</v>
       </c>
       <c r="H66" t="s">
         <v>251</v>
@@ -11960,18 +12095,18 @@
       </c>
       <c r="D67">
         <f t="shared" ref="D67:D93" ca="1" si="3">RANDBETWEEN(250,5000)</f>
-        <v>1378</v>
+        <v>365</v>
       </c>
       <c r="E67">
         <f t="shared" ref="E67:E93" ca="1" si="4">RANDBETWEEN(0,50)</f>
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="F67" t="s">
         <v>246</v>
       </c>
       <c r="G67">
         <f t="shared" ref="G67:G93" ca="1" si="5">RANDBETWEEN(0,10000)</f>
-        <v>9150</v>
+        <v>7172</v>
       </c>
       <c r="H67" t="s">
         <v>251</v>
@@ -11989,18 +12124,18 @@
       </c>
       <c r="D68">
         <f t="shared" ca="1" si="3"/>
-        <v>4381</v>
+        <v>1071</v>
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="F68" t="s">
         <v>246</v>
       </c>
       <c r="G68">
         <f t="shared" ca="1" si="5"/>
-        <v>2475</v>
+        <v>4722</v>
       </c>
       <c r="H68" t="s">
         <v>251</v>
@@ -12018,18 +12153,18 @@
       </c>
       <c r="D69">
         <f t="shared" ca="1" si="3"/>
-        <v>1839</v>
+        <v>3589</v>
       </c>
       <c r="E69">
         <f t="shared" ca="1" si="4"/>
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="F69" t="s">
         <v>246</v>
       </c>
       <c r="G69">
         <f t="shared" ca="1" si="5"/>
-        <v>9509</v>
+        <v>9352</v>
       </c>
       <c r="H69" t="s">
         <v>251</v>
@@ -12047,18 +12182,18 @@
       </c>
       <c r="D70">
         <f t="shared" ca="1" si="3"/>
-        <v>3967</v>
+        <v>2604</v>
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="4"/>
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F70" t="s">
         <v>246</v>
       </c>
       <c r="G70">
         <f t="shared" ca="1" si="5"/>
-        <v>1001</v>
+        <v>2456</v>
       </c>
       <c r="H70" t="s">
         <v>251</v>
@@ -12076,18 +12211,18 @@
       </c>
       <c r="D71">
         <f t="shared" ca="1" si="3"/>
-        <v>2460</v>
+        <v>483</v>
       </c>
       <c r="E71">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="F71" t="s">
         <v>246</v>
       </c>
       <c r="G71">
         <f t="shared" ca="1" si="5"/>
-        <v>193</v>
+        <v>4569</v>
       </c>
       <c r="H71" t="s">
         <v>251</v>
@@ -12105,18 +12240,18 @@
       </c>
       <c r="D72">
         <f t="shared" ca="1" si="3"/>
-        <v>3005</v>
+        <v>4493</v>
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="4"/>
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="F72" t="s">
         <v>246</v>
       </c>
       <c r="G72">
         <f t="shared" ca="1" si="5"/>
-        <v>5481</v>
+        <v>3204</v>
       </c>
       <c r="H72" t="s">
         <v>251</v>
@@ -12134,18 +12269,18 @@
       </c>
       <c r="D73">
         <f t="shared" ca="1" si="3"/>
-        <v>3526</v>
+        <v>3556</v>
       </c>
       <c r="E73">
         <f t="shared" ca="1" si="4"/>
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="F73" t="s">
         <v>246</v>
       </c>
       <c r="G73">
         <f t="shared" ca="1" si="5"/>
-        <v>8865</v>
+        <v>1765</v>
       </c>
       <c r="H73" t="s">
         <v>251</v>
@@ -12163,18 +12298,18 @@
       </c>
       <c r="D74">
         <f t="shared" ca="1" si="3"/>
-        <v>494</v>
+        <v>696</v>
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="F74" t="s">
         <v>246</v>
       </c>
       <c r="G74">
         <f t="shared" ca="1" si="5"/>
-        <v>2008</v>
+        <v>5753</v>
       </c>
       <c r="H74" t="s">
         <v>251</v>
@@ -12192,18 +12327,18 @@
       </c>
       <c r="D75">
         <f t="shared" ca="1" si="3"/>
-        <v>3125</v>
+        <v>3036</v>
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="4"/>
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F75" t="s">
         <v>246</v>
       </c>
       <c r="G75">
         <f t="shared" ca="1" si="5"/>
-        <v>5381</v>
+        <v>6373</v>
       </c>
       <c r="H75" t="s">
         <v>251</v>
@@ -12221,18 +12356,18 @@
       </c>
       <c r="D76">
         <f t="shared" ca="1" si="3"/>
-        <v>2332</v>
+        <v>1422</v>
       </c>
       <c r="E76">
         <f t="shared" ca="1" si="4"/>
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
         <v>246</v>
       </c>
       <c r="G76">
         <f t="shared" ca="1" si="5"/>
-        <v>5555</v>
+        <v>8010</v>
       </c>
       <c r="H76" t="s">
         <v>251</v>
@@ -12250,18 +12385,18 @@
       </c>
       <c r="D77">
         <f t="shared" ca="1" si="3"/>
-        <v>4244</v>
+        <v>2953</v>
       </c>
       <c r="E77">
         <f t="shared" ca="1" si="4"/>
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="F77" t="s">
         <v>246</v>
       </c>
       <c r="G77">
         <f t="shared" ca="1" si="5"/>
-        <v>101</v>
+        <v>9016</v>
       </c>
       <c r="H77" t="s">
         <v>251</v>
@@ -12279,18 +12414,18 @@
       </c>
       <c r="D78">
         <f t="shared" ca="1" si="3"/>
-        <v>3632</v>
+        <v>2639</v>
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="4"/>
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="F78" t="s">
         <v>246</v>
       </c>
       <c r="G78">
         <f t="shared" ca="1" si="5"/>
-        <v>4351</v>
+        <v>6761</v>
       </c>
       <c r="H78" t="s">
         <v>251</v>
@@ -12308,18 +12443,18 @@
       </c>
       <c r="D79">
         <f t="shared" ca="1" si="3"/>
-        <v>3574</v>
+        <v>2276</v>
       </c>
       <c r="E79">
         <f t="shared" ca="1" si="4"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F79" t="s">
         <v>246</v>
       </c>
       <c r="G79">
         <f t="shared" ca="1" si="5"/>
-        <v>6441</v>
+        <v>6445</v>
       </c>
       <c r="H79" t="s">
         <v>251</v>
@@ -12337,18 +12472,18 @@
       </c>
       <c r="D80">
         <f t="shared" ca="1" si="3"/>
-        <v>755</v>
+        <v>4145</v>
       </c>
       <c r="E80">
         <f t="shared" ca="1" si="4"/>
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F80" t="s">
         <v>246</v>
       </c>
       <c r="G80">
         <f t="shared" ca="1" si="5"/>
-        <v>6594</v>
+        <v>3550</v>
       </c>
       <c r="H80" t="s">
         <v>251</v>
@@ -12366,18 +12501,18 @@
       </c>
       <c r="D81">
         <f t="shared" ca="1" si="3"/>
-        <v>4464</v>
+        <v>2887</v>
       </c>
       <c r="E81">
         <f t="shared" ca="1" si="4"/>
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F81" t="s">
         <v>246</v>
       </c>
       <c r="G81">
         <f t="shared" ca="1" si="5"/>
-        <v>1740</v>
+        <v>2839</v>
       </c>
       <c r="H81" t="s">
         <v>251</v>
@@ -12395,18 +12530,18 @@
       </c>
       <c r="D82">
         <f t="shared" ca="1" si="3"/>
-        <v>1719</v>
+        <v>1372</v>
       </c>
       <c r="E82">
         <f t="shared" ca="1" si="4"/>
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="F82" t="s">
         <v>246</v>
       </c>
       <c r="G82">
         <f t="shared" ca="1" si="5"/>
-        <v>890</v>
+        <v>2737</v>
       </c>
       <c r="H82" t="s">
         <v>251</v>
@@ -12424,18 +12559,18 @@
       </c>
       <c r="D83">
         <f t="shared" ca="1" si="3"/>
-        <v>1720</v>
+        <v>1812</v>
       </c>
       <c r="E83">
         <f t="shared" ca="1" si="4"/>
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F83" t="s">
         <v>246</v>
       </c>
       <c r="G83">
         <f t="shared" ca="1" si="5"/>
-        <v>5663</v>
+        <v>3361</v>
       </c>
       <c r="H83" t="s">
         <v>251</v>
@@ -12453,18 +12588,18 @@
       </c>
       <c r="D84">
         <f t="shared" ca="1" si="3"/>
-        <v>3169</v>
+        <v>2874</v>
       </c>
       <c r="E84">
         <f t="shared" ca="1" si="4"/>
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="F84" t="s">
         <v>246</v>
       </c>
       <c r="G84">
         <f t="shared" ca="1" si="5"/>
-        <v>6304</v>
+        <v>5840</v>
       </c>
       <c r="H84" t="s">
         <v>251</v>
@@ -12482,18 +12617,18 @@
       </c>
       <c r="D85">
         <f t="shared" ca="1" si="3"/>
-        <v>2749</v>
+        <v>3918</v>
       </c>
       <c r="E85">
         <f t="shared" ca="1" si="4"/>
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F85" t="s">
         <v>246</v>
       </c>
       <c r="G85">
         <f t="shared" ca="1" si="5"/>
-        <v>6690</v>
+        <v>9092</v>
       </c>
       <c r="H85" t="s">
         <v>251</v>
@@ -12511,7 +12646,7 @@
       </c>
       <c r="D86">
         <f t="shared" ca="1" si="3"/>
-        <v>1355</v>
+        <v>728</v>
       </c>
       <c r="E86">
         <f t="shared" ca="1" si="4"/>
@@ -12522,7 +12657,7 @@
       </c>
       <c r="G86">
         <f t="shared" ca="1" si="5"/>
-        <v>548</v>
+        <v>7031</v>
       </c>
       <c r="H86" t="s">
         <v>251</v>
@@ -12540,18 +12675,18 @@
       </c>
       <c r="D87">
         <f t="shared" ca="1" si="3"/>
-        <v>4518</v>
+        <v>1602</v>
       </c>
       <c r="E87">
         <f t="shared" ca="1" si="4"/>
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F87" t="s">
         <v>246</v>
       </c>
       <c r="G87">
         <f t="shared" ca="1" si="5"/>
-        <v>5813</v>
+        <v>4525</v>
       </c>
       <c r="H87" t="s">
         <v>251</v>
@@ -12569,18 +12704,18 @@
       </c>
       <c r="D88">
         <f t="shared" ca="1" si="3"/>
-        <v>4411</v>
+        <v>3531</v>
       </c>
       <c r="E88">
         <f t="shared" ca="1" si="4"/>
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="F88" t="s">
         <v>246</v>
       </c>
       <c r="G88">
         <f t="shared" ca="1" si="5"/>
-        <v>790</v>
+        <v>3697</v>
       </c>
       <c r="H88" t="s">
         <v>251</v>
@@ -12598,18 +12733,18 @@
       </c>
       <c r="D89">
         <f t="shared" ca="1" si="3"/>
-        <v>900</v>
+        <v>2373</v>
       </c>
       <c r="E89">
         <f t="shared" ca="1" si="4"/>
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="F89" t="s">
         <v>246</v>
       </c>
       <c r="G89">
         <f t="shared" ca="1" si="5"/>
-        <v>6927</v>
+        <v>1251</v>
       </c>
       <c r="H89" t="s">
         <v>251</v>
@@ -12627,18 +12762,18 @@
       </c>
       <c r="D90">
         <f t="shared" ca="1" si="3"/>
-        <v>866</v>
+        <v>3804</v>
       </c>
       <c r="E90">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F90" t="s">
         <v>246</v>
       </c>
       <c r="G90">
         <f t="shared" ca="1" si="5"/>
-        <v>7039</v>
+        <v>4341</v>
       </c>
       <c r="H90" t="s">
         <v>251</v>
@@ -12656,18 +12791,18 @@
       </c>
       <c r="D91">
         <f t="shared" ca="1" si="3"/>
-        <v>2526</v>
+        <v>3409</v>
       </c>
       <c r="E91">
         <f t="shared" ca="1" si="4"/>
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F91" t="s">
         <v>246</v>
       </c>
       <c r="G91">
         <f t="shared" ca="1" si="5"/>
-        <v>6256</v>
+        <v>4612</v>
       </c>
       <c r="H91" t="s">
         <v>251</v>
@@ -12685,18 +12820,18 @@
       </c>
       <c r="D92">
         <f t="shared" ca="1" si="3"/>
-        <v>1264</v>
+        <v>3615</v>
       </c>
       <c r="E92">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="F92" t="s">
         <v>246</v>
       </c>
       <c r="G92">
         <f t="shared" ca="1" si="5"/>
-        <v>8353</v>
+        <v>7849</v>
       </c>
       <c r="H92" t="s">
         <v>251</v>
@@ -12714,18 +12849,18 @@
       </c>
       <c r="D93">
         <f t="shared" ca="1" si="3"/>
-        <v>536</v>
+        <v>3329</v>
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="4"/>
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="F93" t="s">
         <v>246</v>
       </c>
       <c r="G93">
         <f t="shared" ca="1" si="5"/>
-        <v>3689</v>
+        <v>5585</v>
       </c>
       <c r="H93" t="s">
         <v>251</v>
@@ -13218,11 +13353,11 @@
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <f ca="1">RANDBETWEEN(1, 50)</f>
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="B2">
         <f ca="1">RANDBETWEEN(100, 2999)</f>
-        <v>332</v>
+        <v>2783</v>
       </c>
       <c r="C2" t="s">
         <v>250</v>
@@ -13240,11 +13375,11 @@
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <f t="shared" ref="A3:A50" ca="1" si="0">RANDBETWEEN(1, 50)</f>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B50" ca="1" si="1">RANDBETWEEN(100, 2999)</f>
-        <v>2969</v>
+        <v>1116</v>
       </c>
       <c r="C3" t="s">
         <v>338</v>
@@ -13262,11 +13397,11 @@
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ca="1" si="0"/>
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="1"/>
-        <v>481</v>
+        <v>1037</v>
       </c>
       <c r="C4" t="s">
         <v>339</v>
@@ -13284,11 +13419,11 @@
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="1"/>
-        <v>878</v>
+        <v>2210</v>
       </c>
       <c r="C5" t="s">
         <v>250</v>
@@ -13306,11 +13441,11 @@
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="1"/>
-        <v>153</v>
+        <v>2505</v>
       </c>
       <c r="C6" t="s">
         <v>338</v>
@@ -13328,11 +13463,11 @@
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" ca="1" si="0"/>
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="1"/>
-        <v>188</v>
+        <v>611</v>
       </c>
       <c r="C7" t="s">
         <v>339</v>
@@ -13350,11 +13485,11 @@
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="1"/>
-        <v>1757</v>
+        <v>1032</v>
       </c>
       <c r="C8" t="s">
         <v>250</v>
@@ -13372,11 +13507,11 @@
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="1"/>
-        <v>720</v>
+        <v>2214</v>
       </c>
       <c r="C9" t="s">
         <v>338</v>
@@ -13394,11 +13529,11 @@
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="1"/>
-        <v>376</v>
+        <v>2120</v>
       </c>
       <c r="C10" t="s">
         <v>339</v>
@@ -13416,11 +13551,11 @@
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" ca="1" si="0"/>
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="1"/>
-        <v>1251</v>
+        <v>2288</v>
       </c>
       <c r="C11" t="s">
         <v>250</v>
@@ -13438,11 +13573,11 @@
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="1"/>
-        <v>2046</v>
+        <v>696</v>
       </c>
       <c r="C12" t="s">
         <v>338</v>
@@ -13460,11 +13595,11 @@
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="1"/>
-        <v>1580</v>
+        <v>1991</v>
       </c>
       <c r="C13" t="s">
         <v>339</v>
@@ -13482,11 +13617,11 @@
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" ca="1" si="0"/>
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="1"/>
-        <v>981</v>
+        <v>1870</v>
       </c>
       <c r="C14" t="s">
         <v>250</v>
@@ -13508,7 +13643,7 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="1"/>
-        <v>2836</v>
+        <v>1772</v>
       </c>
       <c r="C15" t="s">
         <v>338</v>
@@ -13526,11 +13661,11 @@
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="1"/>
-        <v>2516</v>
+        <v>716</v>
       </c>
       <c r="C16" t="s">
         <v>339</v>
@@ -13548,11 +13683,11 @@
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" ca="1" si="0"/>
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="1"/>
-        <v>469</v>
+        <v>1257</v>
       </c>
       <c r="C17" t="s">
         <v>250</v>
@@ -13570,11 +13705,11 @@
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="1"/>
-        <v>483</v>
+        <v>1483</v>
       </c>
       <c r="C18" t="s">
         <v>338</v>
@@ -13592,11 +13727,11 @@
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="1"/>
-        <v>2935</v>
+        <v>922</v>
       </c>
       <c r="C19" t="s">
         <v>339</v>
@@ -13614,11 +13749,11 @@
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" ca="1" si="0"/>
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="1"/>
-        <v>2706</v>
+        <v>715</v>
       </c>
       <c r="C20" t="s">
         <v>250</v>
@@ -13636,11 +13771,11 @@
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" ca="1" si="0"/>
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="1"/>
-        <v>1993</v>
+        <v>949</v>
       </c>
       <c r="C21" t="s">
         <v>338</v>
@@ -13658,11 +13793,11 @@
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="1"/>
-        <v>1229</v>
+        <v>2940</v>
       </c>
       <c r="C22" t="s">
         <v>339</v>
@@ -13680,11 +13815,11 @@
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="1"/>
-        <v>598</v>
+        <v>282</v>
       </c>
       <c r="C23" t="s">
         <v>250</v>
@@ -13702,11 +13837,11 @@
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" ca="1" si="0"/>
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="1"/>
-        <v>429</v>
+        <v>225</v>
       </c>
       <c r="C24" t="s">
         <v>338</v>
@@ -13724,11 +13859,11 @@
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="1"/>
-        <v>1163</v>
+        <v>756</v>
       </c>
       <c r="C25" t="s">
         <v>339</v>
@@ -13746,11 +13881,11 @@
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="1"/>
-        <v>1923</v>
+        <v>799</v>
       </c>
       <c r="C26" t="s">
         <v>250</v>
@@ -13768,11 +13903,11 @@
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="1"/>
-        <v>2200</v>
+        <v>109</v>
       </c>
       <c r="C27" t="s">
         <v>338</v>
@@ -13790,11 +13925,11 @@
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="1"/>
-        <v>366</v>
+        <v>2864</v>
       </c>
       <c r="C28" t="s">
         <v>339</v>
@@ -13812,11 +13947,11 @@
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B29">
         <f t="shared" ca="1" si="1"/>
-        <v>377</v>
+        <v>2711</v>
       </c>
       <c r="C29" t="s">
         <v>250</v>
@@ -13834,11 +13969,11 @@
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" ca="1" si="0"/>
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="B30">
         <f t="shared" ca="1" si="1"/>
-        <v>1148</v>
+        <v>1444</v>
       </c>
       <c r="C30" t="s">
         <v>338</v>
@@ -13856,11 +13991,11 @@
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B31">
         <f t="shared" ca="1" si="1"/>
-        <v>1697</v>
+        <v>507</v>
       </c>
       <c r="C31" t="s">
         <v>339</v>
@@ -13878,11 +14013,11 @@
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" ca="1" si="0"/>
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B32">
         <f t="shared" ca="1" si="1"/>
-        <v>1747</v>
+        <v>1319</v>
       </c>
       <c r="C32" t="s">
         <v>250</v>
@@ -13900,11 +14035,11 @@
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" ca="1" si="0"/>
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B33">
         <f t="shared" ca="1" si="1"/>
-        <v>970</v>
+        <v>956</v>
       </c>
       <c r="C33" t="s">
         <v>338</v>
@@ -13922,11 +14057,11 @@
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="B34">
         <f t="shared" ca="1" si="1"/>
-        <v>2092</v>
+        <v>1974</v>
       </c>
       <c r="C34" t="s">
         <v>339</v>
@@ -13944,11 +14079,11 @@
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="B35">
         <f t="shared" ca="1" si="1"/>
-        <v>2328</v>
+        <v>715</v>
       </c>
       <c r="C35" t="s">
         <v>250</v>
@@ -13966,11 +14101,11 @@
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" ca="1" si="0"/>
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B36">
         <f t="shared" ca="1" si="1"/>
-        <v>585</v>
+        <v>1329</v>
       </c>
       <c r="C36" t="s">
         <v>338</v>
@@ -13988,11 +14123,11 @@
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <f t="shared" ca="1" si="0"/>
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B37">
         <f t="shared" ca="1" si="1"/>
-        <v>2801</v>
+        <v>1614</v>
       </c>
       <c r="C37" t="s">
         <v>339</v>
@@ -14010,11 +14145,11 @@
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" ca="1" si="0"/>
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B38">
         <f t="shared" ca="1" si="1"/>
-        <v>1327</v>
+        <v>476</v>
       </c>
       <c r="C38" t="s">
         <v>250</v>
@@ -14032,11 +14167,11 @@
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <f t="shared" ca="1" si="1"/>
-        <v>2098</v>
+        <v>127</v>
       </c>
       <c r="C39" t="s">
         <v>338</v>
@@ -14054,11 +14189,11 @@
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <f t="shared" ca="1" si="0"/>
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="B40">
         <f t="shared" ca="1" si="1"/>
-        <v>211</v>
+        <v>359</v>
       </c>
       <c r="C40" t="s">
         <v>339</v>
@@ -14076,11 +14211,11 @@
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B41">
         <f t="shared" ca="1" si="1"/>
-        <v>1986</v>
+        <v>1867</v>
       </c>
       <c r="C41" t="s">
         <v>250</v>
@@ -14098,11 +14233,11 @@
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <f t="shared" ca="1" si="0"/>
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B42">
         <f t="shared" ca="1" si="1"/>
-        <v>2513</v>
+        <v>299</v>
       </c>
       <c r="C42" t="s">
         <v>338</v>
@@ -14120,11 +14255,11 @@
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <f t="shared" ca="1" si="0"/>
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="B43">
         <f t="shared" ca="1" si="1"/>
-        <v>1282</v>
+        <v>1550</v>
       </c>
       <c r="C43" t="s">
         <v>339</v>
@@ -14142,11 +14277,11 @@
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <f t="shared" ca="1" si="0"/>
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="B44">
         <f t="shared" ca="1" si="1"/>
-        <v>2025</v>
+        <v>1888</v>
       </c>
       <c r="C44" t="s">
         <v>250</v>
@@ -14164,11 +14299,11 @@
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <f t="shared" ca="1" si="0"/>
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="B45">
         <f t="shared" ca="1" si="1"/>
-        <v>2315</v>
+        <v>589</v>
       </c>
       <c r="C45" t="s">
         <v>338</v>
@@ -14186,11 +14321,11 @@
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B46">
         <f t="shared" ca="1" si="1"/>
-        <v>132</v>
+        <v>1324</v>
       </c>
       <c r="C46" t="s">
         <v>339</v>
@@ -14208,11 +14343,11 @@
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B47">
         <f t="shared" ca="1" si="1"/>
-        <v>417</v>
+        <v>2106</v>
       </c>
       <c r="C47" t="s">
         <v>250</v>
@@ -14230,11 +14365,11 @@
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="B48">
         <f t="shared" ca="1" si="1"/>
-        <v>259</v>
+        <v>114</v>
       </c>
       <c r="C48" t="s">
         <v>338</v>
@@ -14252,11 +14387,11 @@
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B49">
         <f t="shared" ca="1" si="1"/>
-        <v>2311</v>
+        <v>1698</v>
       </c>
       <c r="C49" t="s">
         <v>339</v>
@@ -14274,11 +14409,11 @@
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="B50">
         <f t="shared" ca="1" si="1"/>
-        <v>479</v>
+        <v>1775</v>
       </c>
       <c r="C50" t="s">
         <v>250</v>
@@ -14323,7 +14458,7 @@
       </c>
       <c r="C1">
         <f t="shared" ref="C1:C32" ca="1" si="0">RANDBETWEEN(100000000,999999999)</f>
-        <v>875779039</v>
+        <v>689256251</v>
       </c>
       <c r="D1" t="str">
         <f>CONCATENATE(A1," ",B1)</f>
@@ -14339,7 +14474,7 @@
       </c>
       <c r="C2">
         <f t="shared" ca="1" si="0"/>
-        <v>892091327</v>
+        <v>904586052</v>
       </c>
       <c r="D2" t="str">
         <f t="shared" ref="D2:D50" si="1">CONCATENATE(A2," ",B2)</f>
@@ -14355,7 +14490,7 @@
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="0"/>
-        <v>859014170</v>
+        <v>111429169</v>
       </c>
       <c r="D3" t="str">
         <f t="shared" si="1"/>
@@ -14371,7 +14506,7 @@
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>223736082</v>
+        <v>274916065</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" si="1"/>
@@ -14387,7 +14522,7 @@
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>688911124</v>
+        <v>125870619</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" si="1"/>
@@ -14403,7 +14538,7 @@
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>292502400</v>
+        <v>603694389</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" si="1"/>
@@ -14419,7 +14554,7 @@
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>506443891</v>
+        <v>202232958</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" si="1"/>
@@ -14435,7 +14570,7 @@
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>117662318</v>
+        <v>211207336</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="1"/>
@@ -14451,7 +14586,7 @@
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>764684956</v>
+        <v>783449341</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" si="1"/>
@@ -14467,7 +14602,7 @@
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>313019389</v>
+        <v>269349749</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="1"/>
@@ -14483,7 +14618,7 @@
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>801060298</v>
+        <v>608892623</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" si="1"/>
@@ -14499,7 +14634,7 @@
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>289998763</v>
+        <v>272126828</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" si="1"/>
@@ -14515,7 +14650,7 @@
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>635680459</v>
+        <v>512481999</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" si="1"/>
@@ -14531,7 +14666,7 @@
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="0"/>
-        <v>278946734</v>
+        <v>556395145</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="1"/>
@@ -14547,7 +14682,7 @@
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="0"/>
-        <v>360476823</v>
+        <v>521553438</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="1"/>
@@ -14563,7 +14698,7 @@
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="0"/>
-        <v>863239814</v>
+        <v>176651270</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" si="1"/>
@@ -14579,7 +14714,7 @@
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="0"/>
-        <v>840435910</v>
+        <v>847198745</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" si="1"/>
@@ -14595,7 +14730,7 @@
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="0"/>
-        <v>419380872</v>
+        <v>294301210</v>
       </c>
       <c r="D18" t="str">
         <f t="shared" si="1"/>
@@ -14611,7 +14746,7 @@
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="0"/>
-        <v>479164985</v>
+        <v>115662580</v>
       </c>
       <c r="D19" t="str">
         <f t="shared" si="1"/>
@@ -14627,7 +14762,7 @@
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="0"/>
-        <v>276415484</v>
+        <v>455363511</v>
       </c>
       <c r="D20" t="str">
         <f t="shared" si="1"/>
@@ -14643,7 +14778,7 @@
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="0"/>
-        <v>486277965</v>
+        <v>781949006</v>
       </c>
       <c r="D21" t="str">
         <f t="shared" si="1"/>
@@ -14659,7 +14794,7 @@
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="0"/>
-        <v>325815446</v>
+        <v>254983191</v>
       </c>
       <c r="D22" t="str">
         <f t="shared" si="1"/>
@@ -14675,7 +14810,7 @@
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="0"/>
-        <v>207495294</v>
+        <v>140080612</v>
       </c>
       <c r="D23" t="str">
         <f t="shared" si="1"/>
@@ -14691,7 +14826,7 @@
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="0"/>
-        <v>450206544</v>
+        <v>787025312</v>
       </c>
       <c r="D24" t="str">
         <f t="shared" si="1"/>
@@ -14707,7 +14842,7 @@
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="0"/>
-        <v>417216600</v>
+        <v>637004707</v>
       </c>
       <c r="D25" t="str">
         <f t="shared" si="1"/>
@@ -14723,7 +14858,7 @@
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="0"/>
-        <v>900323253</v>
+        <v>756159148</v>
       </c>
       <c r="D26" t="str">
         <f t="shared" si="1"/>
@@ -14739,7 +14874,7 @@
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="0"/>
-        <v>301952778</v>
+        <v>837398505</v>
       </c>
       <c r="D27" t="str">
         <f t="shared" si="1"/>
@@ -14755,7 +14890,7 @@
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="0"/>
-        <v>313532244</v>
+        <v>629034961</v>
       </c>
       <c r="D28" t="str">
         <f t="shared" si="1"/>
@@ -14771,7 +14906,7 @@
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="0"/>
-        <v>381515430</v>
+        <v>270034784</v>
       </c>
       <c r="D29" t="str">
         <f t="shared" si="1"/>
@@ -14787,7 +14922,7 @@
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="0"/>
-        <v>810320884</v>
+        <v>430887709</v>
       </c>
       <c r="D30" t="str">
         <f t="shared" si="1"/>
@@ -14803,7 +14938,7 @@
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="0"/>
-        <v>692919177</v>
+        <v>190738291</v>
       </c>
       <c r="D31" t="str">
         <f t="shared" si="1"/>
@@ -14819,7 +14954,7 @@
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="0"/>
-        <v>726690206</v>
+        <v>761852850</v>
       </c>
       <c r="D32" t="str">
         <f t="shared" si="1"/>
@@ -14835,7 +14970,7 @@
       </c>
       <c r="C33">
         <f t="shared" ref="C33:C50" ca="1" si="2">RANDBETWEEN(100000000,999999999)</f>
-        <v>699147963</v>
+        <v>831587973</v>
       </c>
       <c r="D33" t="str">
         <f t="shared" si="1"/>
@@ -14851,7 +14986,7 @@
       </c>
       <c r="C34">
         <f t="shared" ca="1" si="2"/>
-        <v>503001263</v>
+        <v>393698076</v>
       </c>
       <c r="D34" t="str">
         <f t="shared" si="1"/>
@@ -14867,7 +15002,7 @@
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="2"/>
-        <v>474705010</v>
+        <v>308177229</v>
       </c>
       <c r="D35" t="str">
         <f t="shared" si="1"/>
@@ -14883,7 +15018,7 @@
       </c>
       <c r="C36">
         <f t="shared" ca="1" si="2"/>
-        <v>363172488</v>
+        <v>590787355</v>
       </c>
       <c r="D36" t="str">
         <f t="shared" si="1"/>
@@ -14899,7 +15034,7 @@
       </c>
       <c r="C37">
         <f t="shared" ca="1" si="2"/>
-        <v>138807972</v>
+        <v>621803066</v>
       </c>
       <c r="D37" t="str">
         <f t="shared" si="1"/>
@@ -14915,7 +15050,7 @@
       </c>
       <c r="C38">
         <f t="shared" ca="1" si="2"/>
-        <v>830592601</v>
+        <v>219690405</v>
       </c>
       <c r="D38" t="str">
         <f t="shared" si="1"/>
@@ -14931,7 +15066,7 @@
       </c>
       <c r="C39">
         <f t="shared" ca="1" si="2"/>
-        <v>900289946</v>
+        <v>132711661</v>
       </c>
       <c r="D39" t="str">
         <f t="shared" si="1"/>
@@ -14947,7 +15082,7 @@
       </c>
       <c r="C40">
         <f t="shared" ca="1" si="2"/>
-        <v>697521366</v>
+        <v>853512082</v>
       </c>
       <c r="D40" t="str">
         <f t="shared" si="1"/>
@@ -14963,7 +15098,7 @@
       </c>
       <c r="C41">
         <f t="shared" ca="1" si="2"/>
-        <v>870073659</v>
+        <v>712790431</v>
       </c>
       <c r="D41" t="str">
         <f t="shared" si="1"/>
@@ -14979,7 +15114,7 @@
       </c>
       <c r="C42">
         <f t="shared" ca="1" si="2"/>
-        <v>952573905</v>
+        <v>945573395</v>
       </c>
       <c r="D42" t="str">
         <f t="shared" si="1"/>
@@ -14995,7 +15130,7 @@
       </c>
       <c r="C43">
         <f t="shared" ca="1" si="2"/>
-        <v>395394280</v>
+        <v>443279409</v>
       </c>
       <c r="D43" t="str">
         <f t="shared" si="1"/>
@@ -15011,7 +15146,7 @@
       </c>
       <c r="C44">
         <f t="shared" ca="1" si="2"/>
-        <v>973212619</v>
+        <v>844175126</v>
       </c>
       <c r="D44" t="str">
         <f>CONCATENATE(A44," ",B44)</f>
@@ -15027,7 +15162,7 @@
       </c>
       <c r="C45">
         <f t="shared" ca="1" si="2"/>
-        <v>135956626</v>
+        <v>706483221</v>
       </c>
       <c r="D45" t="str">
         <f t="shared" si="1"/>
@@ -15043,7 +15178,7 @@
       </c>
       <c r="C46">
         <f t="shared" ca="1" si="2"/>
-        <v>100525393</v>
+        <v>734829138</v>
       </c>
       <c r="D46" t="str">
         <f t="shared" si="1"/>
@@ -15059,7 +15194,7 @@
       </c>
       <c r="C47">
         <f t="shared" ca="1" si="2"/>
-        <v>890989191</v>
+        <v>959789511</v>
       </c>
       <c r="D47" t="str">
         <f t="shared" si="1"/>
@@ -15075,7 +15210,7 @@
       </c>
       <c r="C48">
         <f t="shared" ca="1" si="2"/>
-        <v>270425106</v>
+        <v>853203204</v>
       </c>
       <c r="D48" t="str">
         <f t="shared" si="1"/>
@@ -15091,7 +15226,7 @@
       </c>
       <c r="C49">
         <f t="shared" ca="1" si="2"/>
-        <v>164593791</v>
+        <v>659678639</v>
       </c>
       <c r="D49" t="str">
         <f t="shared" si="1"/>
@@ -15107,7 +15242,7 @@
       </c>
       <c r="C50">
         <f t="shared" ca="1" si="2"/>
-        <v>335253494</v>
+        <v>753408419</v>
       </c>
       <c r="D50" t="str">
         <f t="shared" si="1"/>
@@ -15139,7 +15274,7 @@
       <c r="A1" s="1"/>
       <c r="B1">
         <f t="shared" ref="B1:B32" ca="1" si="0">RANDBETWEEN(100000000,999999999)</f>
-        <v>331092585</v>
+        <v>826244940</v>
       </c>
       <c r="C1" t="s">
         <v>95</v>
@@ -15149,7 +15284,7 @@
       <c r="A2" s="1"/>
       <c r="B2">
         <f t="shared" ca="1" si="0"/>
-        <v>925472157</v>
+        <v>400226547</v>
       </c>
       <c r="C2" t="s">
         <v>81</v>
@@ -15159,7 +15294,7 @@
       <c r="A3" s="1"/>
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
-        <v>380414138</v>
+        <v>279992935</v>
       </c>
       <c r="C3" t="s">
         <v>101</v>
@@ -15169,7 +15304,7 @@
       <c r="A4" s="1"/>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>334401742</v>
+        <v>941344360</v>
       </c>
       <c r="C4" t="s">
         <v>71</v>
@@ -15179,7 +15314,7 @@
       <c r="A5" s="1"/>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>362227207</v>
+        <v>184534365</v>
       </c>
       <c r="C5" t="s">
         <v>104</v>
@@ -15189,7 +15324,7 @@
       <c r="A6" s="1"/>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>383934783</v>
+        <v>219992534</v>
       </c>
       <c r="C6" t="s">
         <v>92</v>
@@ -15199,7 +15334,7 @@
       <c r="A7" s="1"/>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>134098134</v>
+        <v>371847602</v>
       </c>
       <c r="C7" t="s">
         <v>100</v>
@@ -15209,7 +15344,7 @@
       <c r="A8" s="1"/>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>904871348</v>
+        <v>425272736</v>
       </c>
       <c r="C8" t="s">
         <v>89</v>
@@ -15219,7 +15354,7 @@
       <c r="A9" s="1"/>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>342571312</v>
+        <v>955591853</v>
       </c>
       <c r="C9" t="s">
         <v>108</v>
@@ -15229,7 +15364,7 @@
       <c r="A10" s="1"/>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>983484601</v>
+        <v>400049741</v>
       </c>
       <c r="C10" t="s">
         <v>63</v>
@@ -15239,7 +15374,7 @@
       <c r="A11" s="1"/>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>495647106</v>
+        <v>285111449</v>
       </c>
       <c r="C11" t="s">
         <v>90</v>
@@ -15249,7 +15384,7 @@
       <c r="A12" s="1"/>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>130868186</v>
+        <v>995668821</v>
       </c>
       <c r="C12" t="s">
         <v>105</v>
@@ -15259,7 +15394,7 @@
       <c r="A13" s="1"/>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>795361613</v>
+        <v>269773596</v>
       </c>
       <c r="C13" t="s">
         <v>79</v>
@@ -15269,7 +15404,7 @@
       <c r="A14" s="1"/>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>434255784</v>
+        <v>581345598</v>
       </c>
       <c r="C14" t="s">
         <v>75</v>
@@ -15279,7 +15414,7 @@
       <c r="A15" s="1"/>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>823209214</v>
+        <v>539149036</v>
       </c>
       <c r="C15" t="s">
         <v>74</v>
@@ -15289,7 +15424,7 @@
       <c r="A16" s="1"/>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>149454659</v>
+        <v>110650768</v>
       </c>
       <c r="C16" t="s">
         <v>98</v>
@@ -15299,7 +15434,7 @@
       <c r="A17" s="1"/>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>550079130</v>
+        <v>177981737</v>
       </c>
       <c r="C17" t="s">
         <v>93</v>
@@ -15309,7 +15444,7 @@
       <c r="A18" s="1"/>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>271416172</v>
+        <v>422712575</v>
       </c>
       <c r="C18" t="s">
         <v>91</v>
@@ -15319,7 +15454,7 @@
       <c r="A19" s="1"/>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>475954746</v>
+        <v>692242064</v>
       </c>
       <c r="C19" t="s">
         <v>78</v>
@@ -15329,7 +15464,7 @@
       <c r="A20" s="1"/>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>439824090</v>
+        <v>780676768</v>
       </c>
       <c r="C20" t="s">
         <v>61</v>
@@ -15339,7 +15474,7 @@
       <c r="A21" s="1"/>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>348297070</v>
+        <v>527613095</v>
       </c>
       <c r="C21" t="s">
         <v>69</v>
@@ -15349,7 +15484,7 @@
       <c r="A22" s="1"/>
       <c r="B22">
         <f t="shared" ca="1" si="0"/>
-        <v>143739220</v>
+        <v>724299889</v>
       </c>
       <c r="C22" t="s">
         <v>109</v>
@@ -15359,7 +15494,7 @@
       <c r="A23" s="1"/>
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>315478789</v>
+        <v>934162181</v>
       </c>
       <c r="C23" t="s">
         <v>97</v>
@@ -15369,7 +15504,7 @@
       <c r="A24" s="1"/>
       <c r="B24">
         <f t="shared" ca="1" si="0"/>
-        <v>155014207</v>
+        <v>818232580</v>
       </c>
       <c r="C24" t="s">
         <v>110</v>
@@ -15379,7 +15514,7 @@
       <c r="A25" s="1"/>
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
-        <v>807862223</v>
+        <v>284830891</v>
       </c>
       <c r="C25" t="s">
         <v>96</v>
@@ -15389,7 +15524,7 @@
       <c r="A26" s="1"/>
       <c r="B26">
         <f t="shared" ca="1" si="0"/>
-        <v>526847460</v>
+        <v>368530403</v>
       </c>
       <c r="C26" t="s">
         <v>64</v>
@@ -15399,7 +15534,7 @@
       <c r="A27" s="1"/>
       <c r="B27">
         <f t="shared" ca="1" si="0"/>
-        <v>215356677</v>
+        <v>768061550</v>
       </c>
       <c r="C27" t="s">
         <v>77</v>
@@ -15409,7 +15544,7 @@
       <c r="A28" s="1"/>
       <c r="B28">
         <f t="shared" ca="1" si="0"/>
-        <v>309732459</v>
+        <v>480936474</v>
       </c>
       <c r="C28" t="s">
         <v>99</v>
@@ -15419,7 +15554,7 @@
       <c r="A29" s="1"/>
       <c r="B29">
         <f t="shared" ca="1" si="0"/>
-        <v>153477870</v>
+        <v>865738490</v>
       </c>
       <c r="C29" t="s">
         <v>66</v>
@@ -15429,7 +15564,7 @@
       <c r="A30" s="1"/>
       <c r="B30">
         <f t="shared" ca="1" si="0"/>
-        <v>518346691</v>
+        <v>772385184</v>
       </c>
       <c r="C30" t="s">
         <v>102</v>
@@ -15439,7 +15574,7 @@
       <c r="A31" s="1"/>
       <c r="B31">
         <f t="shared" ca="1" si="0"/>
-        <v>523065069</v>
+        <v>105821640</v>
       </c>
       <c r="C31" t="s">
         <v>94</v>
@@ -15449,7 +15584,7 @@
       <c r="A32" s="1"/>
       <c r="B32">
         <f t="shared" ca="1" si="0"/>
-        <v>379159425</v>
+        <v>455645573</v>
       </c>
       <c r="C32" t="s">
         <v>83</v>
@@ -15459,7 +15594,7 @@
       <c r="A33" s="1"/>
       <c r="B33">
         <f t="shared" ref="B33:B50" ca="1" si="1">RANDBETWEEN(100000000,999999999)</f>
-        <v>522728044</v>
+        <v>138419794</v>
       </c>
       <c r="C33" t="s">
         <v>82</v>
@@ -15469,7 +15604,7 @@
       <c r="A34" s="1"/>
       <c r="B34">
         <f t="shared" ca="1" si="1"/>
-        <v>314430529</v>
+        <v>958567759</v>
       </c>
       <c r="C34" t="s">
         <v>67</v>
@@ -15479,7 +15614,7 @@
       <c r="A35" s="1"/>
       <c r="B35">
         <f t="shared" ca="1" si="1"/>
-        <v>482489611</v>
+        <v>351527100</v>
       </c>
       <c r="C35" t="s">
         <v>85</v>
@@ -15489,7 +15624,7 @@
       <c r="A36" s="1"/>
       <c r="B36">
         <f t="shared" ca="1" si="1"/>
-        <v>144940926</v>
+        <v>761411158</v>
       </c>
       <c r="C36" t="s">
         <v>87</v>
@@ -15499,7 +15634,7 @@
       <c r="A37" s="1"/>
       <c r="B37">
         <f t="shared" ca="1" si="1"/>
-        <v>260156803</v>
+        <v>208661536</v>
       </c>
       <c r="C37" t="s">
         <v>103</v>
@@ -15509,7 +15644,7 @@
       <c r="A38" s="1"/>
       <c r="B38">
         <f t="shared" ca="1" si="1"/>
-        <v>676552464</v>
+        <v>729849173</v>
       </c>
       <c r="C38" t="s">
         <v>107</v>
@@ -15519,7 +15654,7 @@
       <c r="A39" s="1"/>
       <c r="B39">
         <f t="shared" ca="1" si="1"/>
-        <v>195289076</v>
+        <v>256990274</v>
       </c>
       <c r="C39" t="s">
         <v>68</v>
@@ -15529,7 +15664,7 @@
       <c r="A40" s="1"/>
       <c r="B40">
         <f t="shared" ca="1" si="1"/>
-        <v>958066912</v>
+        <v>634258535</v>
       </c>
       <c r="C40" t="s">
         <v>65</v>
@@ -15539,7 +15674,7 @@
       <c r="A41" s="1"/>
       <c r="B41">
         <f t="shared" ca="1" si="1"/>
-        <v>338456252</v>
+        <v>185714140</v>
       </c>
       <c r="C41" t="s">
         <v>86</v>
@@ -15549,7 +15684,7 @@
       <c r="A42" s="1"/>
       <c r="B42">
         <f t="shared" ca="1" si="1"/>
-        <v>151136475</v>
+        <v>384996207</v>
       </c>
       <c r="C42" t="s">
         <v>73</v>
@@ -15559,7 +15694,7 @@
       <c r="A43" s="1"/>
       <c r="B43">
         <f t="shared" ca="1" si="1"/>
-        <v>941192481</v>
+        <v>785755706</v>
       </c>
       <c r="C43" t="s">
         <v>106</v>
@@ -15569,7 +15704,7 @@
       <c r="A44" s="1"/>
       <c r="B44">
         <f t="shared" ca="1" si="1"/>
-        <v>272931009</v>
+        <v>724998253</v>
       </c>
       <c r="C44" t="s">
         <v>62</v>
@@ -15579,7 +15714,7 @@
       <c r="A45" s="1"/>
       <c r="B45">
         <f t="shared" ca="1" si="1"/>
-        <v>861954477</v>
+        <v>182536310</v>
       </c>
       <c r="C45" t="s">
         <v>72</v>
@@ -15589,7 +15724,7 @@
       <c r="A46" s="1"/>
       <c r="B46">
         <f t="shared" ca="1" si="1"/>
-        <v>552345686</v>
+        <v>577287073</v>
       </c>
       <c r="C46" t="s">
         <v>88</v>
@@ -15599,7 +15734,7 @@
       <c r="A47" s="1"/>
       <c r="B47">
         <f t="shared" ca="1" si="1"/>
-        <v>767150276</v>
+        <v>724421712</v>
       </c>
       <c r="C47" t="s">
         <v>80</v>
@@ -15609,7 +15744,7 @@
       <c r="A48" s="1"/>
       <c r="B48">
         <f t="shared" ca="1" si="1"/>
-        <v>400842822</v>
+        <v>445121594</v>
       </c>
       <c r="C48" t="s">
         <v>84</v>
@@ -15619,7 +15754,7 @@
       <c r="A49" s="1"/>
       <c r="B49">
         <f t="shared" ca="1" si="1"/>
-        <v>654209768</v>
+        <v>876958264</v>
       </c>
       <c r="C49" t="s">
         <v>76</v>
@@ -15629,7 +15764,7 @@
       <c r="A50" s="1"/>
       <c r="B50">
         <f t="shared" ca="1" si="1"/>
-        <v>147698785</v>
+        <v>492998491</v>
       </c>
       <c r="C50" t="s">
         <v>70</v>

--- a/server/seeders/data.xlsx
+++ b/server/seeders/data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="users" sheetId="1" r:id="rId1"/>
@@ -961,35 +961,11 @@
 1 bag of Rice (5kg)</t>
   </si>
   <si>
-    <t>1 bag of Flour
-2kg Sugar
-1 bag of Salt
-1 bag of Peper
-1 bottle of Chilli Sauce
-1 bottle of Mayonnaise
-1 dozen of egg</t>
-  </si>
-  <si>
-    <t>1 bag of Cereal (2kg)
-2 bottle of Fresh milk
-3 loaf of Bread
-2 boxes of Cookies
-2 boxes of Protein bar
-1 carton of Instant noodles</t>
-  </si>
-  <si>
     <t>1 bag of Cereal (1kg)
 1 bottle of Fresh milk
 1 bag of Granola
 2 bottles of Oatmeal
 1 bag of Energy bar</t>
-  </si>
-  <si>
-    <t>1kg of Chicken Wing
-1kg of Chicken Drumsticks
-1kg of Ground Beef
-1 bag of Beef Sausage
-1kg of Bonless Cut Pork Chop</t>
   </si>
   <si>
     <t>1 bag of Hamburger base
@@ -1137,21 +1113,6 @@
     <t>https://lh3.googleusercontent.com/proxy/Vm6Dds0_oWWYrLG3kH5yoaDb3zGIP344yYDNHIn-WRFVzMRFL9ofADGFNT4LZAdKVmFesaQs7Smd0HNAmwORCYWMi1xoxIZtEup_B41HnfWHu5LCiMtW5HN5xRI</t>
   </si>
   <si>
-    <t>3 boxes of frozen Pizza
-1 bag of Frozen Chicken Wing
-1 bag of Frozen Scallops
-1 bag of Mini Corndogs
-1 bag of Stuffed Sandwiches</t>
-  </si>
-  <si>
-    <t>2 bottles of Olive oil
-1 bottle of Mayonnaise
-1 bottle of Ketchup
-2 cans of Canned Salmon
-2 cans of 2 sliced Canned Pork
-2 cans of Canned Spam</t>
-  </si>
-  <si>
     <t>http://www.allonseat.com/wp-content/uploads/2017/03/Green-Beans-with-Mushroom-XO-Sauce-1.jpg</t>
   </si>
   <si>
@@ -1351,6 +1312,37 @@
   </si>
   <si>
     <t>familyOwnerId</t>
+  </si>
+  <si>
+    <t>1 bag of Cereal (2kg)
+2 bottle of Fresh milk
+2 boxes of Protein bar
+1 carton of Instant noodles</t>
+  </si>
+  <si>
+    <t>2 bottles of Olive oil
+1 bottle of Mayonnaise
+1 bottle of Ketchup
+2 cans of Canned Spam</t>
+  </si>
+  <si>
+    <t>1 bag of Frozen Chicken Wing
+1 bag of Frozen Scallops
+1 bag of Mini Corndogs
+1 bag of Stuffed Sandwiches</t>
+  </si>
+  <si>
+    <t>1 bag of Flour
+2kg Sugar
+1 bag of Salt
+1 bag of Peper
+1 dozen of egg</t>
+  </si>
+  <si>
+    <t>1kg of Chicken Wing
+1kg of Chicken Drumsticks
+1kg of Ground Beef
+1 bag of Beef Sausage</t>
   </si>
 </sst>
 </file>
@@ -1725,7 +1717,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O400"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -6172,8 +6164,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P400"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6215,20 +6207,20 @@
         <v>273</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>303</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>106</v>
       </c>
       <c r="F2" s="11">
         <f ca="1">RANDBETWEEN(0,2000)</f>
-        <v>1992</v>
+        <v>37</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>270</v>
@@ -6239,20 +6231,20 @@
         <v>274</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>304</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>106</v>
       </c>
       <c r="F3" s="11">
         <f t="shared" ref="F3:F33" ca="1" si="0">RANDBETWEEN(0,2000)</f>
-        <v>387</v>
+        <v>569</v>
       </c>
       <c r="G3" s="9" t="s">
         <v>270</v>
@@ -6263,68 +6255,67 @@
         <v>275</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>305</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>106</v>
       </c>
       <c r="F4" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>1834</v>
+        <v>3</v>
       </c>
       <c r="G4" s="9" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>276</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>306</v>
+        <v>411</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>106</v>
       </c>
       <c r="F5" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>444</v>
+        <v>312</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>277</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>307</v>
+        <v>408</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>106</v>
       </c>
       <c r="F6" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>1053</v>
+        <v>1221</v>
       </c>
       <c r="G6" s="9" t="s">
         <v>270</v>
@@ -6335,44 +6326,44 @@
         <v>278</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>106</v>
       </c>
       <c r="F7" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>816</v>
+        <v>573</v>
       </c>
       <c r="G7" s="9" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>279</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>346</v>
+        <v>409</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>106</v>
       </c>
       <c r="F8" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>248</v>
+        <v>521</v>
       </c>
       <c r="G8" s="9" t="s">
         <v>270</v>
@@ -6383,44 +6374,44 @@
         <v>280</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>309</v>
+        <v>412</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>106</v>
       </c>
       <c r="F9" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>1684</v>
+        <v>975</v>
       </c>
       <c r="G9" s="9" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>281</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>345</v>
+        <v>410</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>106</v>
       </c>
       <c r="F10" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>1329</v>
+        <v>1004</v>
       </c>
       <c r="G10" s="9" t="s">
         <v>270</v>
@@ -6431,20 +6422,20 @@
         <v>282</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>106</v>
       </c>
       <c r="F11" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>1823</v>
+        <v>1845</v>
       </c>
       <c r="G11" s="9" t="s">
         <v>270</v>
@@ -6455,20 +6446,20 @@
         <v>283</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>106</v>
       </c>
       <c r="F12" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>640</v>
+        <v>1237</v>
       </c>
       <c r="G12" s="9" t="s">
         <v>270</v>
@@ -6479,20 +6470,20 @@
         <v>284</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>106</v>
       </c>
       <c r="F13" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>1392</v>
+        <v>1287</v>
       </c>
       <c r="G13" s="9" t="s">
         <v>97</v>
@@ -6503,20 +6494,20 @@
         <v>285</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>106</v>
       </c>
       <c r="F14" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>139</v>
+        <v>43</v>
       </c>
       <c r="G14" s="9" t="s">
         <v>97</v>
@@ -6527,20 +6518,20 @@
         <v>286</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>106</v>
       </c>
       <c r="F15" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>1450</v>
+        <v>1181</v>
       </c>
       <c r="G15" s="9" t="s">
         <v>97</v>
@@ -6551,19 +6542,19 @@
         <v>287</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>98</v>
       </c>
       <c r="F16" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" s="9" t="s">
         <v>97</v>
@@ -6574,19 +6565,19 @@
         <v>288</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>98</v>
       </c>
       <c r="F17" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" s="9" t="s">
         <v>97</v>
@@ -6597,20 +6588,20 @@
         <v>289</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>106</v>
       </c>
       <c r="F18" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>1303</v>
+        <v>1117</v>
       </c>
       <c r="G18" s="9" t="s">
         <v>97</v>
@@ -6621,20 +6612,20 @@
         <v>290</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>106</v>
       </c>
       <c r="F19" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>766</v>
+        <v>628</v>
       </c>
       <c r="G19" s="9" t="s">
         <v>97</v>
@@ -6645,20 +6636,20 @@
         <v>291</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="E20" s="9" t="s">
         <v>106</v>
       </c>
       <c r="F20" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>1345</v>
+        <v>165</v>
       </c>
       <c r="G20" s="9" t="s">
         <v>97</v>
@@ -6669,20 +6660,20 @@
         <v>292</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="E21" s="9" t="s">
         <v>106</v>
       </c>
       <c r="F21" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>429</v>
+        <v>1076</v>
       </c>
       <c r="G21" s="9" t="s">
         <v>271</v>
@@ -6693,20 +6684,20 @@
         <v>293</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="E22" s="9" t="s">
         <v>106</v>
       </c>
       <c r="F22" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>1656</v>
+        <v>1606</v>
       </c>
       <c r="G22" s="9" t="s">
         <v>271</v>
@@ -6717,20 +6708,20 @@
         <v>294</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="E23" s="9" t="s">
         <v>106</v>
       </c>
       <c r="F23" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>1214</v>
+        <v>159</v>
       </c>
       <c r="G23" s="9" t="s">
         <v>271</v>
@@ -6741,20 +6732,20 @@
         <v>295</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="E24" s="9" t="s">
         <v>106</v>
       </c>
       <c r="F24" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>582</v>
+        <v>1860</v>
       </c>
       <c r="G24" s="9" t="s">
         <v>271</v>
@@ -6765,20 +6756,20 @@
         <v>296</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="E25" s="9" t="s">
         <v>106</v>
       </c>
       <c r="F25" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>1171</v>
+        <v>1041</v>
       </c>
       <c r="G25" s="9" t="s">
         <v>271</v>
@@ -6789,20 +6780,20 @@
         <v>297</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="E26" s="9" t="s">
         <v>106</v>
       </c>
       <c r="F26" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>1883</v>
+        <v>817</v>
       </c>
       <c r="G26" s="9" t="s">
         <v>271</v>
@@ -6813,20 +6804,20 @@
         <v>298</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="E27" s="9" t="s">
         <v>106</v>
       </c>
       <c r="F27" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>461</v>
+        <v>1526</v>
       </c>
       <c r="G27" s="9" t="s">
         <v>272</v>
@@ -6837,20 +6828,20 @@
         <v>299</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="E28" s="9" t="s">
         <v>106</v>
       </c>
       <c r="F28" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>1636</v>
+        <v>254</v>
       </c>
       <c r="G28" s="9" t="s">
         <v>272</v>
@@ -6861,20 +6852,20 @@
         <v>300</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="E29" s="9" t="s">
         <v>106</v>
       </c>
       <c r="F29" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>567</v>
+        <v>1273</v>
       </c>
       <c r="G29" s="9" t="s">
         <v>272</v>
@@ -6885,20 +6876,19 @@
         <v>301</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="E30" s="9" t="s">
         <v>106</v>
       </c>
       <c r="F30" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>1413</v>
+        <v>1</v>
       </c>
       <c r="G30" s="9" t="s">
         <v>272</v>
@@ -6909,13 +6899,13 @@
         <v>302</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="E31" s="9" t="s">
         <v>106</v>
@@ -6929,23 +6919,23 @@
     </row>
     <row r="32" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="E32" s="9" t="s">
         <v>106</v>
       </c>
       <c r="F32" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>864</v>
+        <v>924</v>
       </c>
       <c r="G32" s="9" t="s">
         <v>272</v>
@@ -6953,23 +6943,23 @@
     </row>
     <row r="33" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="E33" s="9" t="s">
         <v>106</v>
       </c>
       <c r="F33" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>255</v>
+        <v>1725</v>
       </c>
       <c r="G33" s="9" t="s">
         <v>272</v>
@@ -8458,310 +8448,310 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="B2" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="C2" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B3" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="C3" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B4" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="C4" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="B5" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="C5" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="B6" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="C6" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="B7" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="C7" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B8" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="C8" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B9" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="C9" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="B10" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="C10" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="B11" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="C11" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="B12" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="C12" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="B13" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="C13" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>397</v>
+      </c>
+      <c r="B14" t="s">
         <v>402</v>
       </c>
-      <c r="B14" t="s">
-        <v>407</v>
-      </c>
       <c r="C14" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B15" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="C15" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="B16" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="C16" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="B17" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="C17" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="B18" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="C18" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="B19" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="C19" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B20" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="C20" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>398</v>
+      </c>
+      <c r="B21" t="s">
         <v>403</v>
       </c>
-      <c r="B21" t="s">
-        <v>408</v>
-      </c>
       <c r="C21" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="B22" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="C22" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="B23" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="C23" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="B24" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="C24" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B25" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="C25" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B26" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="C26" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>399</v>
+      </c>
+      <c r="B27" t="s">
         <v>404</v>
       </c>
-      <c r="B27" t="s">
-        <v>409</v>
-      </c>
       <c r="C27" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="B28" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="C28" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
     </row>
   </sheetData>
@@ -8785,10 +8775,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="B1" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">

--- a/server/seeders/data.xlsx
+++ b/server/seeders/data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="users" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="products" sheetId="4" r:id="rId3"/>
     <sheet name="neighborhood" sheetId="9" r:id="rId4"/>
     <sheet name="family" sheetId="10" r:id="rId5"/>
+    <sheet name="news" sheetId="11" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="433">
   <si>
     <t>fullName</t>
   </si>
@@ -1344,12 +1345,99 @@
 1kg of Ground Beef
 1 bag of Beef Sausage</t>
   </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>Covid Live Updates: Nevada Ends Mask Mandate</t>
+  </si>
+  <si>
+    <t>Even as some U.S. states drop mask mandates, other areas remain in the grip of the Omicron variant. New York City is prepared to fire a few thousand workers.
+Officials from the Centers for Disease Control and Prevention have called the moves to lift mask mandates and other precautions premature.
+“Our hospitalizations are still high, our death rates are still high,” Dr. Rochelle P. Walensky, the director of the agency, said at a recent news briefing. “So, as we work toward that and as we are encouraged by the current trends,” she added, when it comes to relaxing restrictions, “we are not there yet.”
+Governor Sisolak said that he and his state’s health officials had taken the C.D.C.’s guidelines into consideration, but that “I am doing what I think is best, based on the citizens of the state of Nevada.”
+The governor’s move on Thursday applies to businesses, schools and correctional facilities. He said that though he was announcing it in midmorning, teachers and students in the state’s schools should continue wearing masks for the rest of the school day.</t>
+  </si>
+  <si>
+    <t>https://static01.nyt.com/images/2022/02/10/multimedia/10virus-briefing-nyc-workers-2/10virus-briefing-nyc-workers-2-superJumbo.jpg?quality=75&amp;auto=webp</t>
+  </si>
+  <si>
+    <t>When Do Masks Come Off? The Hard Truth About Lifting Covid Restrictions.</t>
+  </si>
+  <si>
+    <t>Policymakers need to be humble about what we don’t know, especially with Covid-19.
+The first Covid-19 strategy document I wrote, in April 2020, for Bill de Blasio when he was New York’s mayor had multiple pages devoted to metrics for when to relax or tighten restrictions — such as mask mandates — for offices, restaurants, sporting events and more.
+But I’m just as perplexed now as I was almost two years ago about the best metrics to use to monitor the pandemic and how to use them to trigger actions that slow the spread.
+It has become clear to me that decisions about restrictions cannot be solely determined by any single metric or combination of them. Whether they are case rates, test positivity, I.C.U. bed utilization or other figures, these metrics must be considered along with many other, qualitative factors. No Covid-related number can speak for itself and work at all times, because critical factors keep changing. These include the virus itself; tools like vaccines, drugs and better tests; our evidence for what works to prevent spread; and public attitudes about pandemic control measures.
+For me, the darkest moment of relying too much on metrics was when Mr. de Blasio temporarily closed in-person public school in November 2020 because he had publicly committed that he would do so when the citywide coronavirus test positivity rate rose above 3 percent. This was a metric I endorsed before the school year began but no longer did because we had collected enough data to show that measures to limit Covid-19 transmission in schools were working.</t>
+  </si>
+  <si>
+    <t>https://static01.nyt.com/images/2022/03/09/opinion/09Varma-2/merlin_185190441_33321c07-0f6d-4255-9bed-e31183af15e9-superJumbo.jpg?quality=75&amp;auto=webp</t>
+  </si>
+  <si>
+    <t>Johnson signals early end to England’s COVID isolation rules</t>
+  </si>
+  <si>
+    <t>British Prime Minister Boris Johnson has said that laws requiring people in England with COVID-19 to self-isolate could be lifted by the end of the month amid a fall in infection rates, bringing an end to all domestic coronavirus restrictions.
+“Provided the current encouraging trends in the data continue, it is my expectation that we will be able to end the last domestic restrictions – including the legal requirement to self-isolate if you test positive – a full month early,” Johnson told the United Kingdom Parliament on Wednesday.
+Under the current rules, people who test positive now have to isolate for five full days. That rule is to expire on March 24.
+Johnson added he plans to present his plan for lifting COVID curbs when Parliament returns from a short break on February 21.
+He was also challenged by lawmakers during the weekly Prime Minister’s Questions session in the House of Commons about a photo published on Wednesday by the Daily Mirror newspaper showing him at a Christmas quiz during December 2020 when strict restrictions on social gatherings were in place.
+Johnson said the event had already been submitted to the police for investigation as part of their probe into alleged lockdown-breaking events held at his official Downing Street residence during the pandemic.
+The embattled prime minister has faced persistent calls from opposition legislators to resign over the so-called “Partygate” scandal, while several members of his own party have also moved to try and trigger a vote of no confidence in his leadership.</t>
+  </si>
+  <si>
+    <t>https://www.aljazeera.com/wp-content/uploads/2022/02/2022-02-09T134203Z_731119880_RC2BGS9H8VEZ_RTRMADP_3_BRITAIN-POLITICS-PMQS.jpg?resize=770%2C513</t>
+  </si>
+  <si>
+    <t>England looks to fast-track plans to scrap self-isolation after positive COVID-19 test</t>
+  </si>
+  <si>
+    <t>Under the plan, announced by British Prime Minister Boris Johnson, all legal coronavirus restrictions in England would come to an end a month earlier than the previously proposed date of March 24 if infection rates continued to drop.
+UK authorities reported 68,214 new infections on Wednesday, as well as the deaths of 276 people within 28 days of a positive test.
+However, over a seven-day period both infections and deaths were down 22.8 per cent and 16.3 per cent respectively.
+Most of England's restrictions were lifted in July last year, a move which saw the end of mandated mask wearing and social distancing, but some measures were reintroduced under "Plan B" in December amid the spread of the Omicron variant.
+Mr Johnson said accelerating the relaxation of the rules was part of the government's long-terms plans for living with the disease, which would be announced after February 21.
+"It is my intention to return on the first day after the half-term (parliamentary) recess to present our strategy for living with COVID," the Prime Minister told the House of Commons on Wednesday.</t>
+  </si>
+  <si>
+    <t>https://live-production.wcms.abc-cdn.net.au/a9aac71d99966a2498d00fccf249455c?impolicy=wcms_crop_resize&amp;cropH=3018&amp;cropW=4526&amp;xPos=323&amp;yPos=305&amp;width=862&amp;height=575</t>
+  </si>
+  <si>
+    <t>Covid deaths: UK soars ahead of other countries in reducing fatalities as nations ditch restrictions</t>
+  </si>
+  <si>
+    <t>Covid death rates are falling in the UK, with fatalities in England and Wales now below the pre-pandemic average
+After a strong vaccination and booster rollout, the UK has seen its Covid-19 death rate fall to levels below much of the western world.
+As of last week, Covid deaths were falling, with fatalities in England and Wales now below the pre-pandemic average.
+There have been almost no excess deaths above the typical five-year average from Omicron, in contrast to the previous two waves.
+Italy saw Covid-19 deaths rise throughout January before plateauing at around six deaths per million people this month.
+Even Portugal, which has double jabbed 91 per cent of its population and given booster doses to around 55 per cent, has seen death rates rise to 4.6 per million. As of Wednesday, the UK had just 3.2 deaths per million people.
+Azeem Majeed, Professor of Primary Care and Public Health at Imperial College London, told i: “Although the UK lagged a bit on second vaccines, we got boosters out quickly and so are ahead of most countries in Europe and we know that for Delta and Omicron the third injection makes a big difference to people’s risk of a bad outcome.”
+The lower death rates place the UK in a good position to relax Covid-19 restrictions, even if the decision to drop measures has been called a political rather than scientific choice by some.</t>
+  </si>
+  <si>
+    <t>https://i.inews.co.uk/content/uploads/2022/02/comp-760x523.png</t>
+  </si>
+  <si>
+    <t>In U.K.’s Omicron Wave, Many People Are Dying With Covid-19, Not From It</t>
+  </si>
+  <si>
+    <t>For the first time since the start of the pandemic, the number of people dying in the U.K. with a recent positive Covid-19 test is significantly overstating the true death toll from the virus, according to new data.
+In recent weeks, a commonly watched measure of Covid-19 mortality—deaths within 28 days of a positive test—has been around 30% higher than the number of registered deaths involving Covid-19 and nearly 75% higher than the number of registered deaths where Covid-19 was named as the main cause.</t>
+  </si>
+  <si>
+    <t>https://media.vov.vn/sites/default/files/styles/large/public/2022-02/omicron_0.jpg</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1372,6 +1460,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1401,7 +1494,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
@@ -1433,6 +1526,25 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6164,7 +6276,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P400"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
@@ -6220,7 +6332,7 @@
       </c>
       <c r="F2" s="11">
         <f ca="1">RANDBETWEEN(0,2000)</f>
-        <v>37</v>
+        <v>664</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>270</v>
@@ -6244,7 +6356,7 @@
       </c>
       <c r="F3" s="11">
         <f t="shared" ref="F3:F33" ca="1" si="0">RANDBETWEEN(0,2000)</f>
-        <v>569</v>
+        <v>346</v>
       </c>
       <c r="G3" s="9" t="s">
         <v>270</v>
@@ -6291,7 +6403,7 @@
       </c>
       <c r="F5" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>312</v>
+        <v>1099</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>270</v>
@@ -6315,7 +6427,7 @@
       </c>
       <c r="F6" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>1221</v>
+        <v>1070</v>
       </c>
       <c r="G6" s="9" t="s">
         <v>270</v>
@@ -6339,7 +6451,7 @@
       </c>
       <c r="F7" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>573</v>
+        <v>1168</v>
       </c>
       <c r="G7" s="9" t="s">
         <v>270</v>
@@ -6363,7 +6475,7 @@
       </c>
       <c r="F8" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>521</v>
+        <v>724</v>
       </c>
       <c r="G8" s="9" t="s">
         <v>270</v>
@@ -6387,7 +6499,7 @@
       </c>
       <c r="F9" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>975</v>
+        <v>1527</v>
       </c>
       <c r="G9" s="9" t="s">
         <v>270</v>
@@ -6411,7 +6523,7 @@
       </c>
       <c r="F10" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>1004</v>
+        <v>915</v>
       </c>
       <c r="G10" s="9" t="s">
         <v>270</v>
@@ -6435,7 +6547,7 @@
       </c>
       <c r="F11" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>1845</v>
+        <v>666</v>
       </c>
       <c r="G11" s="9" t="s">
         <v>270</v>
@@ -6459,7 +6571,7 @@
       </c>
       <c r="F12" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>1237</v>
+        <v>1628</v>
       </c>
       <c r="G12" s="9" t="s">
         <v>270</v>
@@ -6483,7 +6595,7 @@
       </c>
       <c r="F13" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>1287</v>
+        <v>1259</v>
       </c>
       <c r="G13" s="9" t="s">
         <v>97</v>
@@ -6507,7 +6619,7 @@
       </c>
       <c r="F14" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>43</v>
+        <v>1258</v>
       </c>
       <c r="G14" s="9" t="s">
         <v>97</v>
@@ -6531,7 +6643,7 @@
       </c>
       <c r="F15" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>1181</v>
+        <v>1640</v>
       </c>
       <c r="G15" s="9" t="s">
         <v>97</v>
@@ -6601,7 +6713,7 @@
       </c>
       <c r="F18" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>1117</v>
+        <v>1682</v>
       </c>
       <c r="G18" s="9" t="s">
         <v>97</v>
@@ -6625,7 +6737,7 @@
       </c>
       <c r="F19" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>628</v>
+        <v>1300</v>
       </c>
       <c r="G19" s="9" t="s">
         <v>97</v>
@@ -6649,7 +6761,7 @@
       </c>
       <c r="F20" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>165</v>
+        <v>1880</v>
       </c>
       <c r="G20" s="9" t="s">
         <v>97</v>
@@ -6673,7 +6785,7 @@
       </c>
       <c r="F21" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>1076</v>
+        <v>1400</v>
       </c>
       <c r="G21" s="9" t="s">
         <v>271</v>
@@ -6697,7 +6809,7 @@
       </c>
       <c r="F22" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>1606</v>
+        <v>952</v>
       </c>
       <c r="G22" s="9" t="s">
         <v>271</v>
@@ -6721,7 +6833,7 @@
       </c>
       <c r="F23" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>159</v>
+        <v>795</v>
       </c>
       <c r="G23" s="9" t="s">
         <v>271</v>
@@ -6745,7 +6857,7 @@
       </c>
       <c r="F24" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>1860</v>
+        <v>333</v>
       </c>
       <c r="G24" s="9" t="s">
         <v>271</v>
@@ -6769,7 +6881,7 @@
       </c>
       <c r="F25" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>1041</v>
+        <v>494</v>
       </c>
       <c r="G25" s="9" t="s">
         <v>271</v>
@@ -6793,7 +6905,7 @@
       </c>
       <c r="F26" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>817</v>
+        <v>686</v>
       </c>
       <c r="G26" s="9" t="s">
         <v>271</v>
@@ -6817,7 +6929,7 @@
       </c>
       <c r="F27" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>1526</v>
+        <v>783</v>
       </c>
       <c r="G27" s="9" t="s">
         <v>272</v>
@@ -6841,7 +6953,7 @@
       </c>
       <c r="F28" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>254</v>
+        <v>1322</v>
       </c>
       <c r="G28" s="9" t="s">
         <v>272</v>
@@ -6865,7 +6977,7 @@
       </c>
       <c r="F29" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>1273</v>
+        <v>183</v>
       </c>
       <c r="G29" s="9" t="s">
         <v>272</v>
@@ -6935,7 +7047,7 @@
       </c>
       <c r="F32" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>924</v>
+        <v>1753</v>
       </c>
       <c r="G32" s="9" t="s">
         <v>272</v>
@@ -6959,7 +7071,7 @@
       </c>
       <c r="F33" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>1725</v>
+        <v>1013</v>
       </c>
       <c r="G33" s="9" t="s">
         <v>272</v>
@@ -8945,4 +9057,102 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="60.28515625" customWidth="1"/>
+    <col min="2" max="2" width="86.7109375" customWidth="1"/>
+    <col min="3" max="3" width="223.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="318.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>415</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>416</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="408.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>418</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>419</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>421</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>422</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="346.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>424</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>425</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>427</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>428</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="132" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>430</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>431</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>432</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>